--- a/assets/establecimientos_consolidados.xlsx
+++ b/assets/establecimientos_consolidados.xlsx
@@ -16884,13 +16884,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33F26012-E9A6-4ADC-B1C5-20D785649C44}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D622D4-9390-4132-8409-7B9C149FF060}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{427C99D7-82E3-4B68-B2C1-35A84EF2B196}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85AB5628-D686-45B7-AB05-BE287685FE2C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D600EFEB-5081-4FAA-9F1E-F774884091F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EB7663-4377-45DC-BD7A-732927A4FFB4}"/>
 </file>
--- a/assets/establecimientos_consolidados.xlsx
+++ b/assets/establecimientos_consolidados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apoyoconsultoria0.sharepoint.com/sites/fileserver/Polticas Pblicas/6 Proyectos/2025-070-O IJM - Línea de base/04. Análisis/03. Programación/01. Python/03. Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_7460E8FB6FE17156F304482E74F4BAEF6DE4C08C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4A46CFD-2975-47DC-B795-8EE16245C623}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_EA006CC20F317935BF464B584402B16D2501DC16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FCB0E60-ECED-475F-9B27-10396ECE47F5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$505</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="1424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="1421">
   <si>
     <t>CATEGORIA</t>
   </si>
@@ -71,7 +71,7 @@
     <t>BAGUA GRANDE</t>
   </si>
   <si>
-    <t>AV. CHACHAPOYAS 1944, INTERIOR 2DO PISO -  COSTADO DEL BANCO DE CREDITO</t>
+    <t>AV. CHACHAPOYAS 1944, INTERIOR 2DO PISO - COSTADO DEL BANCO DE CREDITO</t>
   </si>
   <si>
     <t>CEM REGULAR CHACHAPOYAS</t>
@@ -80,7 +80,7 @@
     <t>CHACHAPOYAS</t>
   </si>
   <si>
-    <t>CLL. MANUEL MOLLINEDO - CUADRA 4 AA.HH.  SENOR DE LOS MILAGROS- LOCAL COMUNAL 2DO  PISO</t>
+    <t>CLL. MANUEL MOLLINEDO - CUADRA 4 AA.HH. SENOR DE LOS MILAGROS- LOCAL COMUNAL 2DO PISO</t>
   </si>
   <si>
     <t>CEM REGULAR BAGUA</t>
@@ -89,7 +89,7 @@
     <t>BAGUA</t>
   </si>
   <si>
-    <t>JR. SARGENTO LORES S/N A COSTADO DEL CEDIF- INABIF/ A 2 CUADRAS DE LA GERENCIA SUB  REGIONAL DE BAGUA</t>
+    <t>JR. SARGENTO LORES S/N A COSTADO DEL CEDIF- INABIF/ A 2 CUADRAS DE LA GERENCIA SUB REGIONAL DE BAGUA</t>
   </si>
   <si>
     <t>CEM REGULAR CONDORCANQUI</t>
@@ -101,19 +101,19 @@
     <t>NIEVA</t>
   </si>
   <si>
-    <t>JR. AMAZONAS CUADRA 03. P.J. JUAN VELASCO  ALVARADO</t>
+    <t>JR. AMAZONAS CUADRA 03. P.J. JUAN VELASCO ALVARADO</t>
   </si>
   <si>
     <t>CEM REGULAR RODRIGUEZ DE MENDOZA</t>
   </si>
   <si>
-    <t>RODRIGUEZ DE  MENDOZA</t>
+    <t>RODRIGUEZ DE MENDOZA</t>
   </si>
   <si>
     <t>SAN NICOLAS</t>
   </si>
   <si>
-    <t>JR. MATIAZA RIMACHI Ndeg510 (INT.  MUNICIPALIDAD PROVINCIAL DE RODRIGUEZ DE  MENDOZA</t>
+    <t>JR. MATIAZA RIMACHI Ndeg510 (INT. MUNICIPALIDAD PROVINCIAL DE RODRIGUEZ DE MENDOZA</t>
   </si>
   <si>
     <t>CEM REGULAR BONGARA</t>
@@ -125,7 +125,7 @@
     <t>JUMBILLA</t>
   </si>
   <si>
-    <t>JR. 26 DE DICIEMBRE 460. FRENTE A LA PLAZA DE  ARMAS DE JUMBILLA.</t>
+    <t>JR. 26 DE DICIEMBRE 460. FRENTE A LA PLAZA DE ARMAS DE JUMBILLA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS</t>
@@ -134,7 +134,7 @@
     <t>CEM 24 HORAS BAGUA</t>
   </si>
   <si>
-    <t>AV. HEROES DEL CENEPA Ndeg 1000 - BAGUA -  BAGUA - AMAZONAS - AL COSTADO DE LA  MUNICIPALIDAD PROVINCIAL DE BAGUA.</t>
+    <t>AV. HEROES DEL CENEPA Ndeg 1000 - BAGUA - BAGUA - AMAZONAS - AL COSTADO DE LA MUNICIPALIDAD PROVINCIAL DE BAGUA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS RURAL SECTORIAL LAMUD</t>
@@ -146,13 +146,13 @@
     <t>LAMUD</t>
   </si>
   <si>
-    <t>JR. MIGUEL GRAU 451 - LAMUD (TERCER PISO DE  LA COMISARIA RURAL SECTORIAL PNP LAMUD) (  REFERENCIA FRENTE AL PARQUE PRINCIPAL DE  LAMUD)</t>
+    <t>JR. MIGUEL GRAU 451 - LAMUD (TERCER PISO DE LA COMISARIA RURAL SECTORIAL PNP LAMUD) ( REFERENCIA FRENTE AL PARQUE PRINCIPAL DE LAMUD)</t>
   </si>
   <si>
     <t>CEM REGULAR LUYA</t>
   </si>
   <si>
-    <t>JR. JOSE OLAYA Ndeg420- REF. EN EL LOCAL DEL EX  CENTRO DE SALUD ANTIGUO DE LUYA</t>
+    <t>JR. JOSE OLAYA Ndeg420- REF. EN EL LOCAL DEL EX CENTRO DE SALUD ANTIGUO DE LUYA</t>
   </si>
   <si>
     <t>CEM REGULAR CHIMBOTE</t>
@@ -167,7 +167,7 @@
     <t>CHIMBOTE</t>
   </si>
   <si>
-    <t>AV. JOSE GALVEZ Ndeg 660, 3ER PISO - (MERCADO  DE PECES)</t>
+    <t>AV. JOSE GALVEZ Ndeg 660, 3ER PISO - (MERCADO DE PECES)</t>
   </si>
   <si>
     <t>CEM REGULAR HUARAZ</t>
@@ -176,7 +176,7 @@
     <t>HUARAZ</t>
   </si>
   <si>
-    <t>AV. RAIMONI S/N CUADRA 10 - INTERIOR DE LA  DIRECCION REGIONAL DEL MINISTERIO DEL  TRABAJO Y DEL EMPELO.</t>
+    <t>AV. RAIMONI S/N CUADRA 10 - INTERIOR DE LA DIRECCION REGIONAL DEL MINISTERIO DEL TRABAJO Y DEL EMPELO.</t>
   </si>
   <si>
     <t>CEM REGULAR HUARMEY</t>
@@ -185,7 +185,7 @@
     <t>HUARMEY</t>
   </si>
   <si>
-    <t>JR.QUILIPE Ndeg 145 - HUARMEY (LOCAL DE ONG-  REAQUI RURACHUN- RADIO MANANTIAL)</t>
+    <t>JR.QUILIPE Ndeg 145 - HUARMEY (LOCAL DE ONG- REAQUI RURACHUN- RADIO MANANTIAL)</t>
   </si>
   <si>
     <t>CEM REGULAR NUEVO CHIMBOTE</t>
@@ -194,7 +194,7 @@
     <t>NUEVO CHIMBOTE</t>
   </si>
   <si>
-    <t>AV. CENTRAL BRUCES S/N (INTERIOR DEL  POLIDEPORTIVO BRUCES-PILAR NORES DE  GARCIA)</t>
+    <t>AV. CENTRAL BRUCES S/N (INTERIOR DEL POLIDEPORTIVO BRUCES-PILAR NORES DE GARCIA)</t>
   </si>
   <si>
     <t>CEM REGULAR YUNGAY</t>
@@ -203,7 +203,7 @@
     <t>YUNGAY</t>
   </si>
   <si>
-    <t>AV. ARIAS GRACIANI S/N (PARTE BAJA DE LA  PLAZA DE ARMAS)</t>
+    <t>AV. ARIAS GRACIANI S/N (PARTE BAJA DE LA PLAZA DE ARMAS)</t>
   </si>
   <si>
     <t>CEM REGULAR HUARI</t>
@@ -212,7 +212,7 @@
     <t>HUARI</t>
   </si>
   <si>
-    <t>JR. SAN MARTIN CDRA.10 -2DO PISO DEL  MERCADO MODELO DE HUARI</t>
+    <t>JR. SAN MARTIN CDRA.10 -2DO PISO DEL MERCADO MODELO DE HUARI</t>
   </si>
   <si>
     <t>CEM REGULAR CASMA</t>
@@ -221,7 +221,7 @@
     <t>CASMA</t>
   </si>
   <si>
-    <t>MZ C LOTE 16 - LOCAL ONG- MAPAYMUMDI O EX  SENATI (CENTRO CIVICO - CASMA)</t>
+    <t>MZ C LOTE 16 - LOCAL ONG- MAPAYMUMDI O EX SENATI (CENTRO CIVICO - CASMA)</t>
   </si>
   <si>
     <t>CEM REGULAR HUAYLAS</t>
@@ -233,7 +233,7 @@
     <t>CARAZ</t>
   </si>
   <si>
-    <t>JR. SAN MARTIN S/N MZ. B6 LT. 1 - BARRIO  MALAMBO. (INTERIOR DEL ESTADIO MUNICIPAL  DE HUAYLAS "GERARDO LARA" PUERTA Ndeg 2  OCCIDENTE)</t>
+    <t>JR. SAN MARTIN S/N MZ. B6 LT. 1 - BARRIO MALAMBO. (INTERIOR DEL ESTADIO MUNICIPAL DE HUAYLAS "GERARDO LARA" PUERTA Ndeg 2 OCCIDENTE)</t>
   </si>
   <si>
     <t>CEM REGULAR CARHUAZ</t>
@@ -242,7 +242,7 @@
     <t>CARHUAZ</t>
   </si>
   <si>
-    <t>1RA CDRA DEL JR. ICA, S/N (EXTERIOR DEL  COLISEO CERRADO DE CARHUAZ)</t>
+    <t>1RA CDRA DEL JR. ICA, S/N (EXTERIOR DEL COLISEO CERRADO DE CARHUAZ)</t>
   </si>
   <si>
     <t>CEM REGULAR BOLOGNESI</t>
@@ -254,7 +254,7 @@
     <t>CHIQUIAN</t>
   </si>
   <si>
-    <t>JR. TACNA Ndeg 320 SEGUNDO PISO, INTERIOR DEL  CENTRO CIVICO - PLAZA DE ARMAS</t>
+    <t>JR. TACNA Ndeg 320 SEGUNDO PISO, INTERIOR DEL CENTRO CIVICO - PLAZA DE ARMAS</t>
   </si>
   <si>
     <t>CEM REGULAR SIHUAS</t>
@@ -263,7 +263,7 @@
     <t>SIHUAS</t>
   </si>
   <si>
-    <t>JR. 09 DE ENERO - S/N- PLAZA DE ARMAS (LOCAL  ANTIGUO DE LA MUNICIPALIDAD PROVINCIAL DE  SIHUAS</t>
+    <t>JR. 09 DE ENERO - S/N- PLAZA DE ARMAS (LOCAL ANTIGUO DE LA MUNICIPALIDAD PROVINCIAL DE SIHUAS</t>
   </si>
   <si>
     <t>CEM REGULAR PALLASCA</t>
@@ -275,7 +275,7 @@
     <t>CABANA</t>
   </si>
   <si>
-    <t>PLAZA DE ARMAS S/N RED. SEGUNDO PISO DE LA  SUB PREFECTURA DE LA PROVINCIA DE PALLASCA</t>
+    <t>PLAZA DE ARMAS S/N RED. SEGUNDO PISO DE LA SUB PREFECTURA DE LA PROVINCIA DE PALLASCA</t>
   </si>
   <si>
     <t>CEM REGULAR MARISCAL LUZURIAGA</t>
@@ -287,7 +287,7 @@
     <t>PISCOBAMBA</t>
   </si>
   <si>
-    <t>CLL. SAN PABLO S/N (COSTADO DEL RENIEC) -  DISTRITO DE PISCOBAMBA, PROVINCIA MARISCAL  LUZURIAGA)</t>
+    <t>CLL. SAN PABLO S/N (COSTADO DEL RENIEC) - DISTRITO DE PISCOBAMBA, PROVINCIA MARISCAL LUZURIAGA)</t>
   </si>
   <si>
     <t>CEM REGULAR ASUNCION</t>
@@ -314,13 +314,13 @@
     <t>CEM REGULAR CARLOS FERMIN FITZCARRALD</t>
   </si>
   <si>
-    <t>CARLOS FERMIN  FITZCARRALD</t>
+    <t>CARLOS FERMIN FITZCARRALD</t>
   </si>
   <si>
     <t>SAN LUIS</t>
   </si>
   <si>
-    <t>JR. PLAZA DE ARMAS Ndeg506 - 1ER PISO DE LA  MUNICIPALIDAD</t>
+    <t>JR. PLAZA DE ARMAS Ndeg506 - 1ER PISO DE LA MUNICIPALIDAD</t>
   </si>
   <si>
     <t>CEM REGULAR ANTONIO RAIMONDI</t>
@@ -341,7 +341,7 @@
     <t>RECUAY</t>
   </si>
   <si>
-    <t>JR. BOLIVAR Ndeg290-INTERIOR DEL ANTIGUO  HOTEL PASTORURI . 1ER PISO</t>
+    <t>JR. BOLIVAR Ndeg290-INTERIOR DEL ANTIGUO HOTEL PASTORURI . 1ER PISO</t>
   </si>
   <si>
     <t>CEM REGULAR AIJA</t>
@@ -350,7 +350,7 @@
     <t>AIJA</t>
   </si>
   <si>
-    <t>PLAZA DE ARMAS DE AIJA - JR. INDEPENDENCIA  Ndeg 480</t>
+    <t>PLAZA DE ARMAS DE AIJA - JR. INDEPENDENCIA Ndeg 480</t>
   </si>
   <si>
     <t>CEM REGULAR OCROS</t>
@@ -359,7 +359,7 @@
     <t>OCROS</t>
   </si>
   <si>
-    <t>PLAZA DE ARMAS S/N - CLL. COMERCIO NO. 272  INTERIOR DE LA MUNICIPALIDAD PROVINCIAL DE  OCROS - 3ER PISO</t>
+    <t>PLAZA DE ARMAS S/N - CLL. COMERCIO NO. 272 INTERIOR DE LA MUNICIPALIDAD PROVINCIAL DE OCROS - 3ER PISO</t>
   </si>
   <si>
     <t>CEM REGULAR CORONGO</t>
@@ -368,55 +368,55 @@
     <t>CORONGO</t>
   </si>
   <si>
-    <t>JR. LIMA 710 2DO PISO DE LA COMISARIA DE  CORONGO</t>
+    <t>JR. LIMA 710 2DO PISO DE LA COMISARIA DE CORONGO</t>
   </si>
   <si>
     <t>CEM 24 HORAS CHIMBOTE</t>
   </si>
   <si>
-    <t>AV. VICTOR RAUL HAYA DE LA TORRE Ndeg 296,  CHIMBOTE - SANTA - ANCASH. REFERENCIA: A LA  ESPALDA DEL POLICLINICO DE LA SANIDAD.</t>
+    <t>AV. VICTOR RAUL HAYA DE LA TORRE Ndeg 296, CHIMBOTE - SANTA - ANCASH. REFERENCIA: A LA ESPALDA DEL POLICLINICO DE LA SANIDAD.</t>
   </si>
   <si>
     <t>CEM 24 HORAS CASMA</t>
   </si>
   <si>
-    <t>AV. MAGDALENA S/N CUADRA 2, CASMA -  CASMA - ANCASH. REFERENCIA:AL FRENTE DE LA  PLAZA DE ARMAS DE CASMA.</t>
+    <t>AV. MAGDALENA S/N CUADRA 2, CASMA - CASMA - ANCASH. REFERENCIA:AL FRENTE DE LA PLAZA DE ARMAS DE CASMA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS SECTORIAL BUENOS AIRES</t>
   </si>
   <si>
-    <t>AV. PACIFICO MZ E LOTE 45 URBANIZACION  BUENOS AIRES, SEGUNDO PISO COMISARIA.  REFERENCIA: AL COSTADO DEL MERCADO  BUENOS AIRES.</t>
+    <t>AV. PACIFICO MZ E LOTE 45 URBANIZACION BUENOS AIRES, SEGUNDO PISO COMISARIA. REFERENCIA: AL COSTADO DEL MERCADO BUENOS AIRES.</t>
   </si>
   <si>
     <t>CEM 24 HORAS ALTO PERU</t>
   </si>
   <si>
-    <t>JR. MOQUEGUA MZ Q LOTE 6 AAHH ALTO PERU,  CHIMBOTE - SANTA - ANCASH</t>
+    <t>JR. MOQUEGUA MZ Q LOTE 6 AAHH ALTO PERU, CHIMBOTE - SANTA - ANCASH</t>
   </si>
   <si>
     <t>CEM 24 HORAS VILLA MARIA</t>
   </si>
   <si>
-    <t>AV. INDEPENDENCIA S/N MZ D LOTE 1 - NUEVO  CHIMBOTE - SANTA - ANCASH</t>
+    <t>AV. INDEPENDENCIA S/N MZ D LOTE 1 - NUEVO CHIMBOTE - SANTA - ANCASH</t>
   </si>
   <si>
     <t>CEM 24 HORAS HUARAZ</t>
   </si>
   <si>
-    <t>JIRON JOSE DE SUCRE S/N , CUADRA 2, HUARAZ,  HUARAZ, ANCASH.</t>
+    <t>JIRON JOSE DE SUCRE S/N , CUADRA 2, HUARAZ, HUARAZ, ANCASH.</t>
   </si>
   <si>
     <t>CEM 24 HORAS YUNGAY</t>
   </si>
   <si>
-    <t>AV. ARIAS GRACIANI CRUCE AV. 28 DE JULIO,  YUNGAY, YUNGAY, ANCASH.</t>
+    <t>AV. ARIAS GRACIANI CRUCE AV. 28 DE JULIO, YUNGAY, YUNGAY, ANCASH.</t>
   </si>
   <si>
     <t>CEM 24 HORAS SECTORIAL BOLOGNESI CHIQUIAN</t>
   </si>
   <si>
-    <t>JR. COMERCIO CUADRA 13 S/N - CHIQUIAN -  BOLOGNESI - ANCASH / COSTADO DEL BANCO DE  LA NACION</t>
+    <t>JR. COMERCIO CUADRA 13 S/N - CHIQUIAN - BOLOGNESI - ANCASH / COSTADO DEL BANCO DE LA NACION</t>
   </si>
   <si>
     <t>CEM REGULAR CHINCHEROS</t>
@@ -428,7 +428,7 @@
     <t>CHINCHEROS</t>
   </si>
   <si>
-    <t>AV. FERNANDO BELAUNDE TERRY S/N - 5  ESQUINAS, FRENTE AL SEMAFORO</t>
+    <t>AV. FERNANDO BELAUNDE TERRY S/N - 5 ESQUINAS, FRENTE AL SEMAFORO</t>
   </si>
   <si>
     <t>CEM REGULAR ANDAHUAYLAS</t>
@@ -437,7 +437,7 @@
     <t>ANDAHUAYLAS</t>
   </si>
   <si>
-    <t>AV. PERU S/N PUERTA 4 Y 5 DEL ESTADIO  MUNICIPAL LOS CHANKAS</t>
+    <t>AV. PERU S/N PUERTA 4 Y 5 DEL ESTADIO MUNICIPAL LOS CHANKAS</t>
   </si>
   <si>
     <t>CEM REGULAR ABANCAY</t>
@@ -446,7 +446,7 @@
     <t>ABANCAY</t>
   </si>
   <si>
-    <t>MZ. B LOTE 10, URBANIZACION ANGEL VILLA  RETAMOSO - PROLONGACION CUSCO</t>
+    <t>MZ. B LOTE 10, URBANIZACION ANGEL VILLA RETAMOSO - PROLONGACION CUSCO</t>
   </si>
   <si>
     <t>CEM REGULAR ANTABAMBA</t>
@@ -455,7 +455,7 @@
     <t>ANTABAMBA</t>
   </si>
   <si>
-    <t>CALLE CALVARIO S/N ESQUINA CALLE HUANCA  S/N, BARRIO ALTO</t>
+    <t>CALLE CALVARIO S/N ESQUINA CALLE HUANCA S/N, BARRIO ALTO</t>
   </si>
   <si>
     <t>CEM REGULAR CHUQUIBAMBILLA</t>
@@ -467,7 +467,7 @@
     <t>CHUQUIBAMBILLA</t>
   </si>
   <si>
-    <t>AV. GRAU S/N - CHUQUIBAMBILLA (AL COSTADO  DEL BANCO DE LA NACION)</t>
+    <t>AV. GRAU S/N - CHUQUIBAMBILLA (AL COSTADO DEL BANCO DE LA NACION)</t>
   </si>
   <si>
     <t>CEM REGULAR COTABAMBAS</t>
@@ -479,7 +479,7 @@
     <t>TAMBOBAMBA</t>
   </si>
   <si>
-    <t>PLAZA DE ARMAS S/N - LOCAL DE LA  MUNICIPALIDAD PROVINCIAL DE COTABAMBAS-  DISTRITO DE TAMBOBAMBA.</t>
+    <t>PLAZA DE ARMAS S/N - LOCAL DE LA MUNICIPALIDAD PROVINCIAL DE COTABAMBAS- DISTRITO DE TAMBOBAMBA.</t>
   </si>
   <si>
     <t>CEM REGULAR AYMARAES</t>
@@ -500,13 +500,13 @@
     <t>TALAVERA</t>
   </si>
   <si>
-    <t>JR. AYACUCHO NO. 282 2DA CDRA. DEL DISTRITO  TALAVERA</t>
+    <t>JR. AYACUCHO NO. 282 2DA CDRA. DEL DISTRITO TALAVERA</t>
   </si>
   <si>
     <t>CEM 24 HORAS BELLAVISTA</t>
   </si>
   <si>
-    <t>AVENIDA PANAMERICANA No 1600 - ABANCAY -  ABANCAY - APURIMAC</t>
+    <t>AVENIDA PANAMERICANA No 1600 - ABANCAY - ABANCAY - APURIMAC</t>
   </si>
   <si>
     <t>CEM 24 HORAS CURAHUASI</t>
@@ -524,13 +524,13 @@
     <t>TAMBURCO</t>
   </si>
   <si>
-    <t>JR. SENOR DE LA EXALTACIONS/N TAMBURCO -  ABANCAY - APURIMAC</t>
+    <t>JR. SENOR DE LA EXALTACIONS/N TAMBURCO - ABANCAY - APURIMAC</t>
   </si>
   <si>
     <t>CEM 24 HORAS CHALHUANCA</t>
   </si>
   <si>
-    <t>AV. PANAMERICANA S/N (COSTADO DE PLAZA  BOLIVAR)</t>
+    <t>AV. PANAMERICANA S/N (COSTADO DE PLAZA BOLIVAR)</t>
   </si>
   <si>
     <t>CEM REGULAR AREQUIPA</t>
@@ -548,7 +548,7 @@
     <t>CAMANA</t>
   </si>
   <si>
-    <t>AV. MARISCAL CASTILLA S/N ESQUINA CON  PROLONGACION QUILCA</t>
+    <t>AV. MARISCAL CASTILLA S/N ESQUINA CON PROLONGACION QUILCA</t>
   </si>
   <si>
     <t>CEM 24 HORAS MIRAFLORES</t>
@@ -557,7 +557,7 @@
     <t>MIRAFLORES</t>
   </si>
   <si>
-    <t>URBANIZACION CHAPICHICO MZ E LT-28 2DO  PISO)</t>
+    <t>URBANIZACION CHAPICHICO MZ E LT-28 2DO PISO)</t>
   </si>
   <si>
     <t>CEM REGULAR ISLAY</t>
@@ -602,7 +602,7 @@
     <t>CHUQUIBAMBA</t>
   </si>
   <si>
-    <t>CALLE COPACABANA Ndeg300 2DO PISO(LOCAL  COMUNAL)</t>
+    <t>CALLE COPACABANA Ndeg300 2DO PISO(LOCAL COMUNAL)</t>
   </si>
   <si>
     <t>CEM REGULAR MAJES</t>
@@ -614,7 +614,7 @@
     <t>MAJES</t>
   </si>
   <si>
-    <t>OFICINA ESTADIO ALMIRANTE MIGUEL GRAU S/N -  AV. CARLOS SHUTTON - EL PEDREGAL - MAJES</t>
+    <t>OFICINA ESTADIO ALMIRANTE MIGUEL GRAU S/N - AV. CARLOS SHUTTON - EL PEDREGAL - MAJES</t>
   </si>
   <si>
     <t>CEM 24 HORAS CERRO COLORADO</t>
@@ -623,7 +623,7 @@
     <t>CERRO COLORADO</t>
   </si>
   <si>
-    <t>AVENIDA ALFONSO UGARTE CUADRA 2 S/N,  CERRO COLORADO - AREQUIPA</t>
+    <t>AVENIDA ALFONSO UGARTE CUADRA 2 S/N, CERRO COLORADO - AREQUIPA</t>
   </si>
   <si>
     <t>CEM 24 HORAS CAMPO MARTE</t>
@@ -632,7 +632,7 @@
     <t>PAUCARPATA</t>
   </si>
   <si>
-    <t>CALLE ALFONSO UGARTE S/N ESQUINA CON  JIRON GRAU</t>
+    <t>CALLE ALFONSO UGARTE S/N ESQUINA CON JIRON GRAU</t>
   </si>
   <si>
     <t>CEM 24 HORAS ANDRES AVELINO CACERES</t>
@@ -641,7 +641,7 @@
     <t>JACOBO HUNTER</t>
   </si>
   <si>
-    <t>AV. JUAN VELASCO ALVARADO MZ N LOTE 11,  ESQUINA CON AVENIDA REVOLUCION</t>
+    <t>AV. JUAN VELASCO ALVARADO MZ N LOTE 11, ESQUINA CON AVENIDA REVOLUCION</t>
   </si>
   <si>
     <t>CEM 24 HORAS CHIVAY</t>
@@ -650,7 +650,7 @@
     <t>CHIVAY</t>
   </si>
   <si>
-    <t>ESQ. CALLE SUCRE CON 9 DE DICIEMBRE (PLAZA  DE ARMAS S/N), CHIVAY - CAYLLOMA -  AREQUIPA.</t>
+    <t>ESQ. CALLE SUCRE CON 9 DE DICIEMBRE (PLAZA DE ARMAS S/N), CHIVAY - CAYLLOMA - AREQUIPA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS ACEQUIA ALTA</t>
@@ -659,7 +659,7 @@
     <t>CAYMA</t>
   </si>
   <si>
-    <t>AVENIDA MIGUEL GRAU No 903 , CAYMA -  AREQUIPA - AREQUIPA.</t>
+    <t>AVENIDA MIGUEL GRAU No 903 , CAYMA - AREQUIPA - AREQUIPA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS EL TRIUNFO</t>
@@ -668,7 +668,7 @@
     <t>LA JOYA</t>
   </si>
   <si>
-    <t>CALLE MIGUEL GRAU MZ.D LOTE 4 PUEBLO  JOVEN EL TRIUNFO - LA JOYA - AREQUIPA -  AREQUIPA.</t>
+    <t>CALLE MIGUEL GRAU MZ.D LOTE 4 PUEBLO JOVEN EL TRIUNFO - LA JOYA - AREQUIPA - AREQUIPA.</t>
   </si>
   <si>
     <t>CEM REGULAR MARIANO MELGAR</t>
@@ -677,13 +677,13 @@
     <t>MARIANO MELGAR</t>
   </si>
   <si>
-    <t>AVENIDA SIMON BOLIVAR 818, CENTRO CIVICO  DE MARIANO MELGAR, 3ER PISO.</t>
+    <t>AVENIDA SIMON BOLIVAR 818, CENTRO CIVICO DE MARIANO MELGAR, 3ER PISO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS EL PORVENIR</t>
   </si>
   <si>
-    <t>AVENIDA SAN MARTIN Ndeg 4103(2DO PISO),  MIRAFLORES, AREQUIPA, AREQUIPA.</t>
+    <t>AVENIDA SAN MARTIN Ndeg 4103(2DO PISO), MIRAFLORES, AREQUIPA, AREQUIPA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS PAMPA DE CAMARONES</t>
@@ -692,25 +692,25 @@
     <t>SACHACA</t>
   </si>
   <si>
-    <t>AVENIDA BRASIL No 617- 2 PISO (SACHACA,  AREQUIPA, AREQUIPA.</t>
+    <t>AVENIDA BRASIL No 617- 2 PISO (SACHACA, AREQUIPA, AREQUIPA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS MIGUEL GRAU</t>
   </si>
   <si>
-    <t>INTERSECCION AVENIDA MIGUEL GRAU CON  AVENIDA VENEZUELA S/N</t>
+    <t>INTERSECCION AVENIDA MIGUEL GRAU CON AVENIDA VENEZUELA S/N</t>
   </si>
   <si>
     <t>CEM 24 HORAS SECTORIAL RURAL CAMANA</t>
   </si>
   <si>
-    <t>AVENIDA MARISCAL CASTILLA Ndeg 600 CAMANA,  CAMANA, AREQUIPA</t>
+    <t>AVENIDA MARISCAL CASTILLA Ndeg 600 CAMANA, CAMANA, AREQUIPA</t>
   </si>
   <si>
     <t>CEM 24 HORAS MATARANI</t>
   </si>
   <si>
-    <t>AV. AREQUIPA S/N (COMISARIA MATARANI),  ISLAY - ISLAY - AREQUIPA</t>
+    <t>AV. AREQUIPA S/N (COMISARIA MATARANI), ISLAY - ISLAY - AREQUIPA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SECTORIAL SOCABAYA</t>
@@ -719,7 +719,7 @@
     <t>SOCABAYA</t>
   </si>
   <si>
-    <t>AV. SALAVERRY Ndeg 150 MZ W LOTE 8 - PUEBLO  TRADICIONAL ALTO BUENAVISTA - SOCABAYA -  AREQUIPA - AREQUIPA</t>
+    <t>AV. SALAVERRY Ndeg 150 MZ W LOTE 8 - PUEBLO TRADICIONAL ALTO BUENAVISTA - SOCABAYA - AREQUIPA - AREQUIPA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SECTORIAL COTAHUASI</t>
@@ -740,7 +740,7 @@
     <t>ALTO SELVA ALEGRE</t>
   </si>
   <si>
-    <t>ESQUINA AV. OBRERA CON CALLE LOS ANDES  4TO. PISO</t>
+    <t>ESQUINA AV. OBRERA CON CALLE LOS ANDES 4TO. PISO</t>
   </si>
   <si>
     <t>CEM REGULAR YURA</t>
@@ -749,7 +749,7 @@
     <t>YURA</t>
   </si>
   <si>
-    <t>ASOCIACION CIUDAD DE DIOS, COMITE 33, ZONA  3, SECTOR B, MZ. W, LOTES 2 Y 3</t>
+    <t>ASOCIACION CIUDAD DE DIOS, COMITE 33, ZONA 3, SECTOR B, MZ. W, LOTES 2 Y 3</t>
   </si>
   <si>
     <t>CEM REGULAR HUAMANGA</t>
@@ -764,7 +764,7 @@
     <t>SAN JUAN BAUTISTA</t>
   </si>
   <si>
-    <t>AV. LAS MALVINAS MANZADA D LOTE 1 -  ASOCIACION VILLA LOS WARPAS</t>
+    <t>AV. LAS MALVINAS MANZADA D LOTE 1 - ASOCIACION VILLA LOS WARPAS</t>
   </si>
   <si>
     <t>CEM REGULAR VILCAS HUAMAN</t>
@@ -773,7 +773,7 @@
     <t>VILCAS HUAMAN</t>
   </si>
   <si>
-    <t>PLAZA PACHACUTEC S/N (INTERIOR DE LA  MUNIICIPALIDAD PROVINCIAL DE VILCAS  HUAMAN - 2DO PISO)</t>
+    <t>PLAZA PACHACUTEC S/N (INTERIOR DE LA MUNIICIPALIDAD PROVINCIAL DE VILCAS HUAMAN - 2DO PISO)</t>
   </si>
   <si>
     <t>CEM REGULAR LA MAR</t>
@@ -794,7 +794,7 @@
     <t>CANGALLO</t>
   </si>
   <si>
-    <t>JR. MARIA PARADO DE BELLIDO, PLAZA  PRINCIPAL 2DO. PISO (MUNICIPALIDAD  PROVINCIAL DE CANGALLO)</t>
+    <t>JR. MARIA PARADO DE BELLIDO, PLAZA PRINCIPAL 2DO. PISO (MUNICIPALIDAD PROVINCIAL DE CANGALLO)</t>
   </si>
   <si>
     <t>CEM REGULAR LUCANAS</t>
@@ -806,7 +806,7 @@
     <t>PUQUIO</t>
   </si>
   <si>
-    <t>JR. BOLOGNESI Ndeg 108 (A MEDIA CUADRA DE LA  PLAZA ARMAS DE PUQUIO) - MUNICIPALIDAD  PROVINCIAL DE LUCANAS -PUQUIO</t>
+    <t>JR. BOLOGNESI Ndeg 108 (A MEDIA CUADRA DE LA PLAZA ARMAS DE PUQUIO) - MUNICIPALIDAD PROVINCIAL DE LUCANAS -PUQUIO</t>
   </si>
   <si>
     <t>CEM REGULAR HUANTA</t>
@@ -818,7 +818,7 @@
     <t>LURICOCHA</t>
   </si>
   <si>
-    <t>JR. DELFINO LUDENA S/N 1ERA CUADRA,  LURICOCHA</t>
+    <t>JR. DELFINO LUDENA S/N 1ERA CUADRA, LURICOCHA</t>
   </si>
   <si>
     <t>CEM REGULAR PARINACOCHAS</t>
@@ -830,7 +830,7 @@
     <t>CORACORA</t>
   </si>
   <si>
-    <t>JR. COMERCIO S/N - CENTRO CIVICO DE CORA  CORA</t>
+    <t>JR. COMERCIO S/N - CENTRO CIVICO DE CORA CORA</t>
   </si>
   <si>
     <t>CEM REGULAR HUANCA SANCOS</t>
@@ -842,19 +842,19 @@
     <t>SANCOS</t>
   </si>
   <si>
-    <t>AV.LOS AYLLUS S/N - LOCAL MUNICIPAL - 1ER  PISO</t>
+    <t>AV.LOS AYLLUS S/N - LOCAL MUNICIPAL - 1ER PISO</t>
   </si>
   <si>
     <t>CEM REGULAR PAUCAR DEL SARA SARA</t>
   </si>
   <si>
-    <t>PAUCAR DEL SARA  SARA</t>
+    <t>PAUCAR DEL SARA SARA</t>
   </si>
   <si>
     <t>PAUSA</t>
   </si>
   <si>
-    <t>JR. MIGUEL DE CERVANTES 455 (PLAZA DE  ARMAS)</t>
+    <t>JR. MIGUEL DE CERVANTES 455 (PLAZA DE ARMAS)</t>
   </si>
   <si>
     <t>CEM REGULAR SUCRE</t>
@@ -866,7 +866,7 @@
     <t>QUEROBAMBA</t>
   </si>
   <si>
-    <t>INTERIOR DE LA MUNICIPALIDAD PROVINCIAL DE  QUEROBAMBA, 2DO PISO (PLAZA DE ARMAS)</t>
+    <t>INTERIOR DE LA MUNICIPALIDAD PROVINCIAL DE QUEROBAMBA, 2DO PISO (PLAZA DE ARMAS)</t>
   </si>
   <si>
     <t>CEM REGULAR VICTOR FAJARDO</t>
@@ -878,7 +878,7 @@
     <t>HUANCAPI</t>
   </si>
   <si>
-    <t>JR. VICTOR FAJARDO S/N CUADRA 7 (LOCAL DE LA  GOBERNACION)</t>
+    <t>JR. VICTOR FAJARDO S/N CUADRA 7 (LOCAL DE LA GOBERNACION)</t>
   </si>
   <si>
     <t>CEM REGULAR SIVIA</t>
@@ -887,7 +887,7 @@
     <t>SIVIA</t>
   </si>
   <si>
-    <t>AV. MISION FRANCISCANA CRUCE CON LA AV.  RICARDO PALMA - 2DO PISO</t>
+    <t>AV. MISION FRANCISCANA CRUCE CON LA AV. RICARDO PALMA - 2DO PISO</t>
   </si>
   <si>
     <t>CEM 24 HORAS CARMEN ALTO</t>
@@ -896,19 +896,19 @@
     <t>CARMEN ALTO</t>
   </si>
   <si>
-    <t>AVENIDA LOS LIBERTADORES S/N, CARMEN ALTO -  HUAMANGA - AYACUCHO. REFERENCIA: FRENTE  AL MERCADO DE PRODUCTORES DEL DISTRITO  DE CARMEN ALTO.</t>
+    <t>AVENIDA LOS LIBERTADORES S/N, CARMEN ALTO - HUAMANGA - AYACUCHO. REFERENCIA: FRENTE AL MERCADO DE PRODUCTORES DEL DISTRITO DE CARMEN ALTO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS HUANTA</t>
   </si>
   <si>
-    <t>AVENIDA SAN MARTIN Ndeg 372, 2DO PISO  HUANTA - HUANTA - AYACUCHO. REFERENCIA: A  1 CUADRA DE LA PLAZA PRINCIPAL DE HUANTA.</t>
+    <t>AVENIDA SAN MARTIN Ndeg 372, 2DO PISO HUANTA - HUANTA - AYACUCHO. REFERENCIA: A 1 CUADRA DE LA PLAZA PRINCIPAL DE HUANTA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS DE FAMILIA AYACUCHO</t>
   </si>
   <si>
-    <t>JR. LIBERTAD N 1200 - PRIMER PISO EDIFICIO  CASE FRENTE AL PARQUE DE LA MEMORIA</t>
+    <t>JR. LIBERTAD N 1200 - PRIMER PISO EDIFICIO CASE FRENTE AL PARQUE DE LA MEMORIA</t>
   </si>
   <si>
     <t>CEM REGULAR CAJAMARCA</t>
@@ -917,7 +917,7 @@
     <t>CAJAMARCA</t>
   </si>
   <si>
-    <t>JR. TARAPACA Ndeg 714 2DO. PISO OF. 203-204  FRENTE AL BBVA</t>
+    <t>JR. TARAPACA Ndeg 714 2DO. PISO OF. 203-204 FRENTE AL BBVA</t>
   </si>
   <si>
     <t>CEM REGULAR JAEN</t>
@@ -926,7 +926,7 @@
     <t>JAEN</t>
   </si>
   <si>
-    <t>CLL. UNIVERSIDAD ENTRE LA CDRA 4 Y 5 - URB. EL  EDEN.</t>
+    <t>CLL. UNIVERSIDAD ENTRE LA CDRA 4 Y 5 - URB. EL EDEN.</t>
   </si>
   <si>
     <t>CEM REGULAR CHOTA</t>
@@ -944,7 +944,7 @@
     <t>SAN IGNACIO</t>
   </si>
   <si>
-    <t>JR. BOLOGNESI 139, PROV. SAN IGNACIO,  CAJAMARCA</t>
+    <t>JR. BOLOGNESI 139, PROV. SAN IGNACIO, CAJAMARCA</t>
   </si>
   <si>
     <t>CEM REGULAR HUALGAYOC</t>
@@ -956,7 +956,7 @@
     <t>BAMBAMARCA</t>
   </si>
   <si>
-    <t>JR. CMDT ESPINAR No 130. BAMBAMARCA-  HUALGAYOC</t>
+    <t>JR. CMDT ESPINAR No 130. BAMBAMARCA- HUALGAYOC</t>
   </si>
   <si>
     <t>CEM REGULAR CUTERVO</t>
@@ -1034,13 +1034,13 @@
     <t>CEM 24 HORAS DE FAMILIA CAJAMARCA</t>
   </si>
   <si>
-    <t>JR. AYACUCHO S/N CUADRA 6 NTERSECCION CON  EL JR. AMAZONAS 2DO PISO</t>
+    <t>JR. AYACUCHO S/N CUADRA 6 NTERSECCION CON EL JR. AMAZONAS 2DO PISO</t>
   </si>
   <si>
     <t>CEM 24 HORAS ASUNCION</t>
   </si>
   <si>
-    <t>JIRON PUNO Ndeg 353, ASUNCION - CAJAMARCA -  CAJAMARCA. REFERENCIA: A 1 CUADRA DE LA  PLAZA PRINCIPAL DE ASUNCION.</t>
+    <t>JIRON PUNO Ndeg 353, ASUNCION - CAJAMARCA - CAJAMARCA. REFERENCIA: A 1 CUADRA DE LA PLAZA PRINCIPAL DE ASUNCION.</t>
   </si>
   <si>
     <t>CEM 24 HORAS RURAL COLASAY</t>
@@ -1061,7 +1061,7 @@
     <t>VENTANILLA</t>
   </si>
   <si>
-    <t>CALLE LAS PALOMAS 171, EX - ZONA COMERCIAL -  LOCAL LA CASA DE MUJER. 1ER PISO</t>
+    <t>CALLE LAS PALOMAS 171, EX - ZONA COMERCIAL - LOCAL LA CASA DE MUJER. 1ER PISO</t>
   </si>
   <si>
     <t>CEM 24 HORAS CALLAO</t>
@@ -1073,16 +1073,16 @@
     <t>CEM REGULAR PACHACUTEC</t>
   </si>
   <si>
-    <t>MZ Z , PRIMA Ndeg1, LOTE 3 SECTOR D1, PROYECTO  PILOTO NUEVA PACHACUTEC.</t>
+    <t>MZ Z , PRIMA Ndeg1, LOTE 3 SECTOR D1, PROYECTO PILOTO NUEVA PACHACUTEC.</t>
   </si>
   <si>
     <t>CEM 24 HORAS CARMEN DE LA LEGUA REYNOSO</t>
   </si>
   <si>
-    <t>CARMEN DE LA LEGUA  REYNOSO</t>
-  </si>
-  <si>
-    <t>AVENIDA 1RO. DE MAYO Ndeg 1108, CARMEN DE LA  LEGUA REYNOSO - CALLAO - CALLAO.  REFERENCIA: A 2 CUADRAS DE LA  MUNICIPALIDAD DE CARMEN DE LA LEGUA  REYNOSO. URB. JUAN INGUNZA VALDIVIA, AV. TOMAS  VALLE 34, CALLAO - CALLAO - CALLAO. REF. 1ER  PISO DE LA COMISARIA JUAN INGUZA VALDIVIA</t>
+    <t>CARMEN DE LA LEGUA REYNOSO</t>
+  </si>
+  <si>
+    <t>AVENIDA 1RO. DE MAYO Ndeg 1108, CARMEN DE LA LEGUA REYNOSO - CALLAO - CALLAO. REFERENCIA: A 2 CUADRAS DE LA MUNICIPALIDAD DE CARMEN DE LA LEGUA REYNOSO. URB. JUAN INGUNZA VALDIVIA, AV. TOMAS VALLE 34, CALLAO - CALLAO - CALLAO. REF. 1ER PISO DE LA COMISARIA JUAN INGUZA VALDIVIA</t>
   </si>
   <si>
     <t>CEM 24 HORAS JUAN INGUNZA VALDIVIA</t>
@@ -1094,7 +1094,7 @@
     <t>CEM 24 HORAS PLAYA RIMAC</t>
   </si>
   <si>
-    <t>JIRON GRAU S/N, CALLAO - CALLAO - CALLAO.  REF. A 2 CUADRAS DEL PARADERO QUILCA CON  FAUCETT</t>
+    <t>JIRON GRAU S/N, CALLAO - CALLAO - CALLAO. REF. A 2 CUADRAS DEL PARADERO QUILCA CON FAUCETT</t>
   </si>
   <si>
     <t>CEM REGULAR BELLAVISTA</t>
@@ -1103,13 +1103,13 @@
     <t>BELLAVISTA</t>
   </si>
   <si>
-    <t>AV. JUAN PABLO II. Ndeg 140. INTERIOR DEL  GOBIERNO REGIONAL DEL CALLAO. REF: FRENTE  AL COLEGIO GENERAL PRADO.</t>
+    <t>AV. JUAN PABLO II. Ndeg 140. INTERIOR DEL GOBIERNO REGIONAL DEL CALLAO. REF: FRENTE AL COLEGIO GENERAL PRADO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS RAMON CASTILLA</t>
   </si>
   <si>
-    <t>JR. TALARA No S/N, URB. RAMON CASTILLA -  CALLAO - CALLAO</t>
+    <t>JR. TALARA No S/N, URB. RAMON CASTILLA - CALLAO - CALLAO</t>
   </si>
   <si>
     <t>CEM REGULAR CUSCO</t>
@@ -1157,7 +1157,7 @@
     <t>SANTO TOMAS</t>
   </si>
   <si>
-    <t>CALLE STA. BARBARA S/N - SANTO TOMAS  /CHUMBIVILCAS</t>
+    <t>CALLE STA. BARBARA S/N - SANTO TOMAS /CHUMBIVILCAS</t>
   </si>
   <si>
     <t>CEM REGULAR PICHARI</t>
@@ -1259,7 +1259,7 @@
     <t>ACOMAYO</t>
   </si>
   <si>
-    <t>JR. RAMON CASTILLA S/N (EX LOCAL DE ESSALUD)  - ACOMAYO.</t>
+    <t>JR. RAMON CASTILLA S/N (EX LOCAL DE ESSALUD) - ACOMAYO.</t>
   </si>
   <si>
     <t>CEM REGULAR PARURO</t>
@@ -1268,7 +1268,7 @@
     <t>PARURO</t>
   </si>
   <si>
-    <t>BARRIO LOS LICENCIADOS S/N ALBERGUE  MUNICIPAL</t>
+    <t>BARRIO LOS LICENCIADOS S/N ALBERGUE MUNICIPAL</t>
   </si>
   <si>
     <t>CEM REGULAR SAN SEBASTIAN</t>
@@ -1283,13 +1283,13 @@
     <t>CEM 24 HORAS DE FAMILIA CUSCO</t>
   </si>
   <si>
-    <t>JIRON PARURO CON JIRON SICUANI S/N,  URBANIZACION EL PROGRESO, WANCHAQ -  CUSCO - CUSCO.</t>
+    <t>JIRON PARURO CON JIRON SICUANI S/N, URBANIZACION EL PROGRESO, WANCHAQ - CUSCO - CUSCO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS SICUANI</t>
   </si>
   <si>
-    <t>PROLONGACION DE LA AVENIDA GRAU S/N,  SICUANI - CANCHIS- CUSCO.</t>
+    <t>PROLONGACION DE LA AVENIDA GRAU S/N, SICUANI - CANCHIS- CUSCO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS SANTIAGO</t>
@@ -1298,13 +1298,13 @@
     <t>SANTIAGO</t>
   </si>
   <si>
-    <t>CALLE JORGE OCHOA NRO.356 SANTIAGO -  CUSCO - CUSCO.</t>
+    <t>CALLE JORGE OCHOA NRO.356 SANTIAGO - CUSCO - CUSCO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS TAHUANTINSUYO</t>
   </si>
   <si>
-    <t>URB. UQCHULLO GRANDE, PASAJE AMERICA S/N  CUSCO - CUSCO - CUSCO.</t>
+    <t>URB. UQCHULLO GRANDE, PASAJE AMERICA S/N CUSCO - CUSCO - CUSCO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAN JERONIMO</t>
@@ -1313,13 +1313,13 @@
     <t>SAN JERONIMO</t>
   </si>
   <si>
-    <t>AVENIDA MANCO CAPAC No 161 SAN JERONIMO -  CUSCO -CUSCO.</t>
+    <t>AVENIDA MANCO CAPAC No 161 SAN JERONIMO - CUSCO -CUSCO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAN SEBASTIAN</t>
   </si>
   <si>
-    <t>PROLONGACION AV. DE LA CULTURA S/N SAN  SEBASTIAN - CUSCO - CUSCO.</t>
+    <t>PROLONGACION AV. DE LA CULTURA S/N SAN SEBASTIAN - CUSCO - CUSCO.</t>
   </si>
   <si>
     <t>CEM REGULAR SAYLLA</t>
@@ -1334,7 +1334,7 @@
     <t>CEM 24 HORAS DE FAMILIA SANTIAGO</t>
   </si>
   <si>
-    <t>AV. ANTONIO LORENA S/N ESQUINA CON JOSE  MANUVERA S/N - SANTIAGO - CUSCO -CUSCO</t>
+    <t>AV. ANTONIO LORENA S/N ESQUINA CON JOSE MANUVERA S/N - SANTIAGO - CUSCO -CUSCO</t>
   </si>
   <si>
     <t>CEM 24 HORAS SECTORIAL CALCA</t>
@@ -1349,7 +1349,7 @@
     <t>HUANCAVELICA</t>
   </si>
   <si>
-    <t>JR. POTOCCHI S/N ESPALDA DE LA PISCINA SAN  CRISTOBAL</t>
+    <t>JR. POTOCCHI S/N ESPALDA DE LA PISCINA SAN CRISTOBAL</t>
   </si>
   <si>
     <t>CEM REGULAR ACOBAMBA</t>
@@ -1367,7 +1367,7 @@
     <t>CHURCAMPA</t>
   </si>
   <si>
-    <t>ESQUINA REAL Y SAN ANTONIO ( COSTADO DE  SEGURIDAD CIUDADANA - FRENTE A PLAZA  PRINCIPAL)</t>
+    <t>ESQUINA REAL Y SAN ANTONIO ( COSTADO DE SEGURIDAD CIUDADANA - FRENTE A PLAZA PRINCIPAL)</t>
   </si>
   <si>
     <t>CEM REGULAR TAYACAJA</t>
@@ -1379,7 +1379,7 @@
     <t>COLCABAMBA</t>
   </si>
   <si>
-    <t>PLAZA PRINCIPAL COLCABAMBA, COLCABAMBA,  PALACIO MUNICIPAL - 1ER PISO.</t>
+    <t>PLAZA PRINCIPAL COLCABAMBA, COLCABAMBA, PALACIO MUNICIPAL - 1ER PISO.</t>
   </si>
   <si>
     <t>CEM REGULAR ANGARAES</t>
@@ -1391,7 +1391,7 @@
     <t>LIRCAY</t>
   </si>
   <si>
-    <t>AV. CENTENARIO S/N - PARQUE ANDRES  AVELINO CACERES - PUEBLO NUEVO - LIRCAY  (LOCAL DEL CENTRO CIVICO)</t>
+    <t>AV. CENTENARIO S/N - PARQUE ANDRES AVELINO CACERES - PUEBLO NUEVO - LIRCAY (LOCAL DEL CENTRO CIVICO)</t>
   </si>
   <si>
     <t>CEM REGULAR HUAYTARA</t>
@@ -1400,7 +1400,7 @@
     <t>HUAYTARA</t>
   </si>
   <si>
-    <t>CALLE MUNICIPAL Ndeg 100 PRIMER PISO  (MUNICIPALIDAD PROVINCIAL DE HUAYTARA -  PLAZA DE ARMAS</t>
+    <t>CALLE MUNICIPAL Ndeg 100 PRIMER PISO (MUNICIPALIDAD PROVINCIAL DE HUAYTARA - PLAZA DE ARMAS</t>
   </si>
   <si>
     <t>CEM REGULAR CASTROVIRREYNA</t>
@@ -1409,13 +1409,13 @@
     <t>CASTROVIRREYNA</t>
   </si>
   <si>
-    <t>AV. LOS LIBERTADORES S/N ( INT. DE LA  MUNICIPALIDAD PROVINCIAL DE  CASTROVIRREYNA)</t>
+    <t>AV. LOS LIBERTADORES S/N ( INT. DE LA MUNICIPALIDAD PROVINCIAL DE CASTROVIRREYNA)</t>
   </si>
   <si>
     <t>CEM 24 HORAS HUANCAVELICA</t>
   </si>
   <si>
-    <t>JR. GRAU 126 - INT COMISARIA SECTORIAL  HUANCAVELICA</t>
+    <t>JR. GRAU 126 - INT COMISARIA SECTORIAL HUANCAVELICA</t>
   </si>
   <si>
     <t>CEM 24 HORAS PAMPAS DE TAYACAJA</t>
@@ -1424,7 +1424,7 @@
     <t>PAMPAS</t>
   </si>
   <si>
-    <t>JIRON MILLER Ndeg 100 - A UNA CUADRA DE LA  PLAZA PRINCIPAL DE PAMPAS (SEGUNDO NIVEL)</t>
+    <t>JIRON MILLER Ndeg 100 - A UNA CUADRA DE LA PLAZA PRINCIPAL DE PAMPAS (SEGUNDO NIVEL)</t>
   </si>
   <si>
     <t>CEM 24 HORAS RURAL HUANDO</t>
@@ -1433,7 +1433,7 @@
     <t>HUANDO</t>
   </si>
   <si>
-    <t>JR. ATAHUALPA S/N LOCAL DE LA  MUNICIPALIDAD DISTRITAL DE HUANDO  (CARRETERA HUANCAYO - HUANCAVELICA)</t>
+    <t>JR. ATAHUALPA S/N LOCAL DE LA MUNICIPALIDAD DISTRITAL DE HUANDO (CARRETERA HUANCAYO - HUANCAVELICA)</t>
   </si>
   <si>
     <t>CEM REGULAR HUANUCO</t>
@@ -1445,7 +1445,7 @@
     <t>AMARILIS</t>
   </si>
   <si>
-    <t>JR. MALECON LOS INCAS CUADRA 5 S/N(ESQUINA  CON OLLANTAY)-LOCAL MULTISERVICIO DE  ATENCION MADRE NINO</t>
+    <t>JR. MALECON LOS INCAS CUADRA 5 S/N(ESQUINA CON OLLANTAY)-LOCAL MULTISERVICIO DE ATENCION MADRE NINO</t>
   </si>
   <si>
     <t>CEM REGULAR AMBO</t>
@@ -1454,7 +1454,7 @@
     <t>AMBO</t>
   </si>
   <si>
-    <t>JR. MARISCAL CASTILLA CDRA 02 -INTERIOR DEL  CENTRO CIVICO COSTADO DEL BANCO DE LA  NACION</t>
+    <t>JR. MARISCAL CASTILLA CDRA 02 -INTERIOR DEL CENTRO CIVICO COSTADO DEL BANCO DE LA NACION</t>
   </si>
   <si>
     <t>CEM REGULAR TINGO MARIA</t>
@@ -1466,7 +1466,7 @@
     <t>RUPA-RUPA</t>
   </si>
   <si>
-    <t>JR. SAN ALEJANDRO 331 ( FRENTE A LA  UNIVERSIDAD HUANUCO LOCAL ANTIGUO)</t>
+    <t>JR. SAN ALEJANDRO 331 ( FRENTE A LA UNIVERSIDAD HUANUCO LOCAL ANTIGUO)</t>
   </si>
   <si>
     <t>CEM REGULAR HUAMALIES</t>
@@ -1490,7 +1490,7 @@
     <t>PANAO</t>
   </si>
   <si>
-    <t>JR. ALFONSO UGARTE Ndeg 204 - PANAO -  PACHITEA - (EX ES SALUD)</t>
+    <t>JR. ALFONSO UGARTE Ndeg 204 - PANAO - PACHITEA - (EX ES SALUD)</t>
   </si>
   <si>
     <t>CEM REGULAR DOS DE MAYO</t>
@@ -1499,7 +1499,7 @@
     <t>DOS DE MAYO</t>
   </si>
   <si>
-    <t>JR. SAN ANTONIO S/N 2DO PISO DEL  MERCADILLO DEL DISTRITO DE RIPAN - PASANDO  EL PUENTE DE PIEDRA</t>
+    <t>JR. SAN ANTONIO S/N 2DO PISO DEL MERCADILLO DEL DISTRITO DE RIPAN - PASANDO EL PUENTE DE PIEDRA</t>
   </si>
   <si>
     <t>CEM REGULAR PUERTO INCA</t>
@@ -1508,7 +1508,7 @@
     <t>PUERTO INCA</t>
   </si>
   <si>
-    <t>MALECON LEGUIA S/N 2DO PISO LOCAL DE LA EX  DEMUNA DE PUERTO INCA(FRENTE AL RIO  PACHITEA-)</t>
+    <t>MALECON LEGUIA S/N 2DO PISO LOCAL DE LA EX DEMUNA DE PUERTO INCA(FRENTE AL RIO PACHITEA-)</t>
   </si>
   <si>
     <t>CEM REGULAR LAURICOCHA</t>
@@ -1520,7 +1520,7 @@
     <t>JESUS</t>
   </si>
   <si>
-    <t>JR. LEONCIO PRADO S/N - EDIFICIO PODER  JUDICIAL- 5TO. PISO</t>
+    <t>JR. LEONCIO PRADO S/N - EDIFICIO PODER JUDICIAL- 5TO. PISO</t>
   </si>
   <si>
     <t>CEM REGULAR YAROWILCA</t>
@@ -1532,7 +1532,7 @@
     <t>CHAVINILLO</t>
   </si>
   <si>
-    <t>JR. VIRGEN DE FATIMA S/N MZ C LOTE 15 SECTOR  SANTA ANITA - CP CHAVINILLO - YAROWILCA</t>
+    <t>JR. VIRGEN DE FATIMA S/N MZ C LOTE 15 SECTOR SANTA ANITA - CP CHAVINILLO - YAROWILCA</t>
   </si>
   <si>
     <t>CEM REGULAR MARANON</t>
@@ -1544,7 +1544,7 @@
     <t>HUACRACHUCO</t>
   </si>
   <si>
-    <t>JR. ANCASH S/N, PRIMERO PISO DEL JUZGADO  MIXTO DE HUACRACHUCO, A MEDIA CUADRA  DEL MINISTERIO PUBLICO.</t>
+    <t>JR. ANCASH S/N, PRIMERO PISO DEL JUZGADO MIXTO DE HUACRACHUCO, A MEDIA CUADRA DEL MINISTERIO PUBLICO.</t>
   </si>
   <si>
     <t>CEM REGULAR HUACAYBAMBA</t>
@@ -1553,13 +1553,13 @@
     <t>HUACAYBAMBA</t>
   </si>
   <si>
-    <t>JR. PACHACUTEC CDRA 02 S/N - 2DO PISO DE LA  MUNICIPALIDAD PROVINCIAL DE HUACAYBAMBA</t>
+    <t>JR. PACHACUTEC CDRA 02 S/N - 2DO PISO DE LA MUNICIPALIDAD PROVINCIAL DE HUACAYBAMBA</t>
   </si>
   <si>
     <t>CEM 24 HORAS AMARILIS</t>
   </si>
   <si>
-    <t>AV. LOS GIRASOLES S/N, PAUCARBAMBILLA -  AMARILIS - HUANUCO - HUANUCO. REFERENCIA:  FRENTE COLEGIO AMAUTA.</t>
+    <t>AV. LOS GIRASOLES S/N, PAUCARBAMBILLA - AMARILIS - HUANUCO - HUANUCO. REFERENCIA: FRENTE COLEGIO AMAUTA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS TOURNAVISTA</t>
@@ -1568,16 +1568,16 @@
     <t>TOURNAVISTA</t>
   </si>
   <si>
-    <t>AVENIDA LETERNAU S/N, TOURNAVISTA -  PUERTO INCA - HUANUCO. REFERENCIA: FRENTE  A LA PLAZA DE ARMAS DE TOURNAVISTA</t>
+    <t>AVENIDA LETERNAU S/N, TOURNAVISTA - PUERTO INCA - HUANUCO. REFERENCIA: FRENTE A LA PLAZA DE ARMAS DE TOURNAVISTA</t>
   </si>
   <si>
     <t>CEM 24 HORAS AUCAYACU</t>
   </si>
   <si>
-    <t>JOSE CRESPO Y  CASTILLO</t>
-  </si>
-  <si>
-    <t>JIRON INDEPENDENCIA CUADRA 4, CRESPO Y  CASTILLO - LEONCIO PRADO - HUANUCO.  REFERENCIA: A ESPALDAS DE LA MUNICIPALIDAD  DISTRITAL DE JOSE CRESPO Y CASTILLO.</t>
+    <t>JOSE CRESPO Y CASTILLO</t>
+  </si>
+  <si>
+    <t>JIRON INDEPENDENCIA CUADRA 4, CRESPO Y CASTILLO - LEONCIO PRADO - HUANUCO. REFERENCIA: A ESPALDAS DE LA MUNICIPALIDAD DISTRITAL DE JOSE CRESPO Y CASTILLO.</t>
   </si>
   <si>
     <t>CEM REGULAR ICA</t>
@@ -1595,7 +1595,7 @@
     <t>PISCO</t>
   </si>
   <si>
-    <t>CALLE 10 MANUEL E. BARRIO NUEVO MZ. J, LT.  31, URBANIZACION FONAVI, PISCO</t>
+    <t>CALLE 10 MANUEL E. BARRIO NUEVO MZ. J, LT. 31, URBANIZACION FONAVI, PISCO</t>
   </si>
   <si>
     <t>CEM REGULAR NASCA</t>
@@ -1604,7 +1604,7 @@
     <t>NASCA</t>
   </si>
   <si>
-    <t>JIRON TACNA 338 - 2DO PISO (BIBLIOTECA  MUNICPAL DE NASCA )</t>
+    <t>JIRON TACNA 338 - 2DO PISO (BIBLIOTECA MUNICPAL DE NASCA )</t>
   </si>
   <si>
     <t>CEM REGULAR CHINCHA ALTA</t>
@@ -1631,13 +1631,13 @@
     <t>CEM 24 HORAS ICA</t>
   </si>
   <si>
-    <t>AVENIDA JUAN JOSE ELIAS CUADRA 4 S/N, ICA -  ICA - ICA.</t>
+    <t>AVENIDA JUAN JOSE ELIAS CUADRA 4 S/N, ICA - ICA - ICA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS CHINCHA</t>
   </si>
   <si>
-    <t>CALLE PLAZA DE ARMAS Ndeg 400, CHINCHA ALTA,  CHINCHA, ICA</t>
+    <t>CALLE PLAZA DE ARMAS Ndeg 400, CHINCHA ALTA, CHINCHA, ICA</t>
   </si>
   <si>
     <t>CEM 24 HORAS LA TINGUINA</t>
@@ -1646,13 +1646,13 @@
     <t>LA TINGUINA</t>
   </si>
   <si>
-    <t>AVENIDA VICTORIO GOTUZZO BIANCHI Ndeg 432, LA  TINGUINA - ICA - ICA</t>
+    <t>AVENIDA VICTORIO GOTUZZO BIANCHI Ndeg 432, LA TINGUINA - ICA - ICA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAN MIGUEL</t>
   </si>
   <si>
-    <t>AVENIDA SAN MARTIN DE PORRES CUADRA 3,  CENTRO POBLADO SAN MIGUEL, PISCO - ICA</t>
+    <t>AVENIDA SAN MARTIN DE PORRES CUADRA 3, CENTRO POBLADO SAN MIGUEL, PISCO - ICA</t>
   </si>
   <si>
     <t>CEM 24 HORAS CHINCHA BAJA</t>
@@ -1661,7 +1661,7 @@
     <t>CHINCHA BAJA</t>
   </si>
   <si>
-    <t>PLAZA DE ARMAS No 150 - CHINCHA BAJA -  CHINCHA - ICA</t>
+    <t>PLAZA DE ARMAS No 150 - CHINCHA BAJA - CHINCHA - ICA</t>
   </si>
   <si>
     <t>CEM REGULAR PARCONA</t>
@@ -1676,7 +1676,7 @@
     <t>CEM 24 HORAS SAN JUAN BAUTISTA</t>
   </si>
   <si>
-    <t>CALLE RAMON CASTILLA Ndeg 142 - PLAZA DE  ARMAS , SAN JUAN BAUTISTA, ICA, ICA.</t>
+    <t>CALLE RAMON CASTILLA Ndeg 142 - PLAZA DE ARMAS , SAN JUAN BAUTISTA, ICA, ICA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS EL CARMEN</t>
@@ -1691,7 +1691,7 @@
     <t>CEM 24 HORAS SANTIAGO - ICA</t>
   </si>
   <si>
-    <t>AV. PANAMERICANA SUR KM 316 SANTIAGO - ICA  - ICA</t>
+    <t>AV. PANAMERICANA SUR KM 316 SANTIAGO - ICA - ICA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SUNAMPE</t>
@@ -1700,7 +1700,7 @@
     <t>SUNAMPE</t>
   </si>
   <si>
-    <t>CALLE JOSE PARDO MZ U LOTE 18 - FRENTE A LA  PLAZA DE ARMAS - SUNAMPE - CHINCHA - ICA</t>
+    <t>CALLE JOSE PARDO MZ U LOTE 18 - FRENTE A LA PLAZA DE ARMAS - SUNAMPE - CHINCHA - ICA</t>
   </si>
   <si>
     <t>CEM 24 HORAS EMILIO ROMAN SARAVIA GARCIA</t>
@@ -1739,7 +1739,7 @@
     <t>APATA</t>
   </si>
   <si>
-    <t>JR. AYACUCHO 1036, PLAZA PRINCIPAL DE  DISTITO DE APATA</t>
+    <t>JR. AYACUCHO 1036, PLAZA PRINCIPAL DE DISTITO DE APATA</t>
   </si>
   <si>
     <t>CEM REGULAR HUANCAYO</t>
@@ -1748,7 +1748,7 @@
     <t>HUANCAYO</t>
   </si>
   <si>
-    <t>JR. CUZCO Ndeg 1590 (COSTADO DE LA SOCIEDAD  DE BENEFICIENCIA DE HUANCAYO Y HOSPITAL  CARRION)</t>
+    <t>JR. CUZCO Ndeg 1590 (COSTADO DE LA SOCIEDAD DE BENEFICIENCIA DE HUANCAYO Y HOSPITAL CARRION)</t>
   </si>
   <si>
     <t>CEM REGULAR CHANCHAMAYO</t>
@@ -1757,7 +1757,7 @@
     <t>CHANCHAMAYO</t>
   </si>
   <si>
-    <t>AV CIRCUNVALACION 696 LA  MERCED,CHANCHAMAYO REF. AL FRENTE DE LA  DEFENSA PUBLICA</t>
+    <t>AV CIRCUNVALACION 696 LA MERCED,CHANCHAMAYO REF. AL FRENTE DE LA DEFENSA PUBLICA</t>
   </si>
   <si>
     <t>CEM REGULAR CONCEPCION</t>
@@ -1766,7 +1766,7 @@
     <t>CONCEPCION</t>
   </si>
   <si>
-    <t>JIRON RICARDO PALMA S/N PLATAFORMA DEL  MERCADO MODELO (COSTADO DE LA RENIEC)</t>
+    <t>JIRON RICARDO PALMA S/N PLATAFORMA DEL MERCADO MODELO (COSTADO DE LA RENIEC)</t>
   </si>
   <si>
     <t>CEM REGULAR TARMA</t>
@@ -1775,7 +1775,7 @@
     <t>TARMA</t>
   </si>
   <si>
-    <t>JR. AMAZONAS 475 - 2DO PISO DEL MERCADO  MODELO - TARMA (COSTADO DE CUNAMAS)</t>
+    <t>JR. AMAZONAS 475 - 2DO PISO DEL MERCADO MODELO - TARMA (COSTADO DE CUNAMAS)</t>
   </si>
   <si>
     <t>CEM REGULAR YAULI</t>
@@ -1787,7 +1787,7 @@
     <t>LA OROYA</t>
   </si>
   <si>
-    <t>AV. HORACIO ZEVALLOS GAMES Ndeg 315 CENTRO  CIVICO - 2DO PISO</t>
+    <t>AV. HORACIO ZEVALLOS GAMES Ndeg 315 CENTRO CIVICO - 2DO PISO</t>
   </si>
   <si>
     <t>CEM REGULAR CHILCA</t>
@@ -1796,7 +1796,7 @@
     <t>CHILCA</t>
   </si>
   <si>
-    <t>JIRON NICOLAS DE PIEROLA 204 (ESQUINA CON  CALLE CESAR VALLEJO - 2 PISO)</t>
+    <t>JIRON NICOLAS DE PIEROLA 204 (ESQUINA CON CALLE CESAR VALLEJO - 2 PISO)</t>
   </si>
   <si>
     <t>CEM REGULAR CHUPACA</t>
@@ -1805,7 +1805,7 @@
     <t>CHUPACA</t>
   </si>
   <si>
-    <t>JR. GRAU 159-161 , 1ER PISO (COSTADO DE  RENIEC)</t>
+    <t>JR. GRAU 159-161 , 1ER PISO (COSTADO DE RENIEC)</t>
   </si>
   <si>
     <t>CEM REGULAR JUNIN</t>
@@ -1823,7 +1823,7 @@
     <t>PANGOA</t>
   </si>
   <si>
-    <t>JR.UCAYALI S/N- ENTRE LA COMISARIA PANGOA Y  EL MERCADO CENTRAL</t>
+    <t>JR.UCAYALI S/N- ENTRE LA COMISARIA PANGOA Y EL MERCADO CENTRAL</t>
   </si>
   <si>
     <t>CEM REGULAR PICHANAQUI</t>
@@ -1832,13 +1832,13 @@
     <t>PICHANAQUI</t>
   </si>
   <si>
-    <t>JIRON JUNIN 908 - A ESPALDAS DE LA  GOBERNACION DE PICHANAQUI</t>
+    <t>JIRON JUNIN 908 - A ESPALDAS DE LA GOBERNACION DE PICHANAQUI</t>
   </si>
   <si>
     <t>CEM 24 HORAS HUANCAYO</t>
   </si>
   <si>
-    <t>AVENIDA FERROCARRIL Ndeg555, HUANCAYO -  HUANCAYO - JUNIN. REFERENCIA: ENTRE JIRON  CUSCO Y JIRON AYACUCHO.</t>
+    <t>AVENIDA FERROCARRIL Ndeg555, HUANCAYO - HUANCAYO - JUNIN. REFERENCIA: ENTRE JIRON CUSCO Y JIRON AYACUCHO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS MAZAMARI</t>
@@ -1847,13 +1847,13 @@
     <t>MAZAMARI</t>
   </si>
   <si>
-    <t>AV.QUILLABAMBA Ndeg 498, MAZAMARI - SATIPO -  JUNIN</t>
+    <t>AV.QUILLABAMBA Ndeg 498, MAZAMARI - SATIPO - JUNIN</t>
   </si>
   <si>
     <t>CEM 24 HORAS LA OROYA</t>
   </si>
   <si>
-    <t>AV. HORACIO ZEVALLOS GAMEZ Ndeg 209, LA  OROYA, REFERENCIA: INTERIOR DE LA  COMISARIA SECTORIAL LA OROYA, ESQUINA  CRUCE TARMA</t>
+    <t>AV. HORACIO ZEVALLOS GAMEZ Ndeg 209, LA OROYA, REFERENCIA: INTERIOR DE LA COMISARIA SECTORIAL LA OROYA, ESQUINA CRUCE TARMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAPALLANGA</t>
@@ -1862,13 +1862,13 @@
     <t>SAPALLANGA</t>
   </si>
   <si>
-    <t>AVENIDA FIDEL MIRANDA Ndeg 1300 SAPALLANGA -  HUANCAYO - JUNIN. REFERENCIA: A 1 CUADRA  DEL PARADERO PRINCIPAL DE SAPALLANGA.</t>
+    <t>AVENIDA FIDEL MIRANDA Ndeg 1300 SAPALLANGA - HUANCAYO - JUNIN. REFERENCIA: A 1 CUADRA DEL PARADERO PRINCIPAL DE SAPALLANGA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS JAUJA</t>
   </si>
   <si>
-    <t>JIRON JOSE GALVEZ No 335, JAUJA - JAUJA -  JUNIN</t>
+    <t>JIRON JOSE GALVEZ No 335, JAUJA - JAUJA - JUNIN</t>
   </si>
   <si>
     <t>CEM 24 HORAS SATIPO</t>
@@ -1883,7 +1883,7 @@
     <t>RIO NEGRO</t>
   </si>
   <si>
-    <t>JR. DEFENSORES DE LA PAZ S/N CON JR. LAS  BEGONIAS</t>
+    <t>JR. DEFENSORES DE LA PAZ S/N CON JR. LAS BEGONIAS</t>
   </si>
   <si>
     <t>CEM REGULAR TRUJILLO</t>
@@ -1895,7 +1895,7 @@
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>MZ C LOTE 5 SECTOR A- (PUEBLO JOVEN  MONSERRATE) (ALT. DE LAS CDRAS 4 Y 5 DE LA  AV. HUSARES DE JUNIN</t>
+    <t>MZ C LOTE 5 SECTOR A- (PUEBLO JOVEN MONSERRATE) (ALT. DE LAS CDRAS 4 Y 5 DE LA AV. HUSARES DE JUNIN</t>
   </si>
   <si>
     <t>CEM REGULAR OTUZCO</t>
@@ -1904,7 +1904,7 @@
     <t>OTUZCO</t>
   </si>
   <si>
-    <t>CLL. TACNA Ndeg 547 - PROVINCIA DE OTUZCO,  DEPARTAMENTO LA LIBERTAD</t>
+    <t>CLL. TACNA Ndeg 547 - PROVINCIA DE OTUZCO, DEPARTAMENTO LA LIBERTAD</t>
   </si>
   <si>
     <t>CEM REGULAR HUAMACHUCO</t>
@@ -1916,7 +1916,7 @@
     <t>CHUGAY</t>
   </si>
   <si>
-    <t>INTERSECCION DE AV. HUAMACHUCO Y PASAJE  BELAUNDE - DISTRITO DE CHUGAY (COSTADO DE  ESTADIO CHUGAY)</t>
+    <t>INTERSECCION DE AV. HUAMACHUCO Y PASAJE BELAUNDE - DISTRITO DE CHUGAY (COSTADO DE ESTADIO CHUGAY)</t>
   </si>
   <si>
     <t>CEM REGULAR CHOCOPE</t>
@@ -1928,7 +1928,7 @@
     <t>CHOCOPE</t>
   </si>
   <si>
-    <t>JR.GILDEMEISTER No 187 ( A ESPALADAS DEL  INSTITUTO TECNOLOGICO)</t>
+    <t>JR.GILDEMEISTER No 187 ( A ESPALADAS DEL INSTITUTO TECNOLOGICO)</t>
   </si>
   <si>
     <t>CEM REGULAR LA ESPERANZA</t>
@@ -1946,7 +1946,7 @@
     <t>SANTIAGO DE CHUCO</t>
   </si>
   <si>
-    <t>CLL. LUIS FELIPE DE LA PUENTE UCEDA Ndeg 1630  REF. EX BIBLIOTECA MUNICIPAL</t>
+    <t>CLL. LUIS FELIPE DE LA PUENTE UCEDA Ndeg 1630 REF. EX BIBLIOTECA MUNICIPAL</t>
   </si>
   <si>
     <t>CEM REGULAR PACASMAYO</t>
@@ -1967,7 +1967,7 @@
     <t>CHEPEN</t>
   </si>
   <si>
-    <t>JR. ATAHUALPA Ndeg 707 -2DO PISO ( INTERIOR DE  LA IGLESIA - PLAZA DE ARMAS DE CHEPEN)</t>
+    <t>JR. ATAHUALPA Ndeg 707 -2DO PISO ( INTERIOR DE LA IGLESIA - PLAZA DE ARMAS DE CHEPEN)</t>
   </si>
   <si>
     <t>CEM REGULAR VIRU</t>
@@ -1988,7 +1988,7 @@
     <t>CASCAS</t>
   </si>
   <si>
-    <t>PASAJE MEDIO MUNDO S/N -CASCAS (LOCAL DEL  ESTADIO MUNICIPAL)</t>
+    <t>PASAJE MEDIO MUNDO S/N -CASCAS (LOCAL DEL ESTADIO MUNICIPAL)</t>
   </si>
   <si>
     <t>CEM REGULAR PATAZ</t>
@@ -2000,7 +2000,7 @@
     <t>TAYABAMBA</t>
   </si>
   <si>
-    <t>JR. JOSE GALVEZ Ndeg 481, 1ER PISO , DEL CENTRO  CIVICO.</t>
+    <t>JR. JOSE GALVEZ Ndeg 481, 1ER PISO , DEL CENTRO CIVICO.</t>
   </si>
   <si>
     <t>CEM REGULAR JULCAN</t>
@@ -2009,7 +2009,7 @@
     <t>JULCAN</t>
   </si>
   <si>
-    <t>AV. CESAR VALLEJO Ndeg 306, JULCAN (AL COSTADO  DE RADIO JULCAN)</t>
+    <t>AV. CESAR VALLEJO Ndeg 306, JULCAN (AL COSTADO DE RADIO JULCAN)</t>
   </si>
   <si>
     <t>CEM REGULAR EL PORVENIR</t>
@@ -2018,7 +2018,7 @@
     <t>EL PORVENIR</t>
   </si>
   <si>
-    <t>AV. WICHANZAO MZA 23, LOTE 2, SECTOR  NUEVO PORVENIR</t>
+    <t>AV. WICHANZAO MZA 23, LOTE 2, SECTOR NUEVO PORVENIR</t>
   </si>
   <si>
     <t>CEM REGULAR BOLIVAR</t>
@@ -2027,7 +2027,7 @@
     <t>BOLIVAR</t>
   </si>
   <si>
-    <t>JR. SAN MARTIN Ndeg 535, A UNA CUADRA DEL  INSTITUTO SUPERIOR TECNICO BOLIVAR</t>
+    <t>JR. SAN MARTIN Ndeg 535, A UNA CUADRA DEL INSTITUTO SUPERIOR TECNICO BOLIVAR</t>
   </si>
   <si>
     <t>CEM REGULAR FLORENCIA DE MORA</t>
@@ -2036,7 +2036,7 @@
     <t>FLORENCIA DE MORA</t>
   </si>
   <si>
-    <t>CLL. JOSE DE LA TORRE UGARTE, Ndeg 1000 2DO  PISO (DENTRO DE LA MUNICIPALIDAD)</t>
+    <t>CLL. JOSE DE LA TORRE UGARTE, Ndeg 1000 2DO PISO (DENTRO DE LA MUNICIPALIDAD)</t>
   </si>
   <si>
     <t>CEM 24 HORAS EL MILAGRO</t>
@@ -2045,7 +2045,7 @@
     <t>HUANCHACO</t>
   </si>
   <si>
-    <t>AV. TUPAC AMARU MZ. 11 LOTE 1, CENTRO  POBLADO MENOR EL MILAGRO, HUANCHACO -  TRUJILLO - LA LIBERTAD.</t>
+    <t>AV. TUPAC AMARU MZ. 11 LOTE 1, CENTRO POBLADO MENOR EL MILAGRO, HUANCHACO - TRUJILLO - LA LIBERTAD.</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAN JOSE</t>
@@ -2054,13 +2054,13 @@
     <t>SAN JOSE</t>
   </si>
   <si>
-    <t>CLL. LIMA Ndeg 601, SAN JOSE - PACASMAYO - LA  LIBERTAD. REFERENCIA: AL LADO DE CENTRO DE  SALUD SAN JOSE.</t>
+    <t>CLL. LIMA Ndeg 601, SAN JOSE - PACASMAYO - LA LIBERTAD. REFERENCIA: AL LADO DE CENTRO DE SALUD SAN JOSE.</t>
   </si>
   <si>
     <t>CEM 24 HORAS FLORENCIA DE MORA</t>
   </si>
   <si>
-    <t>INTERSECCION CLL. 5 DE NOVIEMBRE CON 26 DE  JULIO, FLORENCIA DE MORA - TRUJILLO - LA  LIBERTAD.</t>
+    <t>INTERSECCION CLL. 5 DE NOVIEMBRE CON 26 DE JULIO, FLORENCIA DE MORA - TRUJILLO - LA LIBERTAD.</t>
   </si>
   <si>
     <t>CEM 24 HORAS LAREDO</t>
@@ -2069,7 +2069,7 @@
     <t>LAREDO</t>
   </si>
   <si>
-    <t>CLL. LA FORTUNA S/N LAREDO - TRUJILLO - LA  LIBERTAD</t>
+    <t>CLL. LA FORTUNA S/N LAREDO - TRUJILLO - LA LIBERTAD</t>
   </si>
   <si>
     <t>CEM 24 HORAS CARTAVIO</t>
@@ -2078,7 +2078,7 @@
     <t>SANTIAGO DE CAO</t>
   </si>
   <si>
-    <t>CLL. REAL S/N, CARTAVIO, SANTIAGO DE CAO,  ASCOPE, LA LIBERTAD</t>
+    <t>CLL. REAL S/N, CARTAVIO, SANTIAGO DE CAO, ASCOPE, LA LIBERTAD</t>
   </si>
   <si>
     <t>CEM 24 HORAS HUAMACHUCO</t>
@@ -2087,7 +2087,7 @@
     <t>HUAMACHUCO</t>
   </si>
   <si>
-    <t>AV. SANCHEZ CARRION S/N, HUAMACHUCO,  SANCHEZ CARRION, LA LIBERTAD.</t>
+    <t>AV. SANCHEZ CARRION S/N, HUAMACHUCO, SANCHEZ CARRION, LA LIBERTAD.</t>
   </si>
   <si>
     <t>CEM 24 HORAS CHAO</t>
@@ -2096,13 +2096,13 @@
     <t>CHAO</t>
   </si>
   <si>
-    <t>AV. VICTOR RAUL Ndeg 757, CHAO, VIRU, LA  LIBERTAD.</t>
+    <t>AV. VICTOR RAUL Ndeg 757, CHAO, VIRU, LA LIBERTAD.</t>
   </si>
   <si>
     <t>CEM 24 HORAS PACASMAYO</t>
   </si>
   <si>
-    <t>CLL. 2 DE MAYO Ndeg 05, PACASMAYO,  PACASMAYO, LA LIBERTAD.</t>
+    <t>CLL. 2 DE MAYO Ndeg 05, PACASMAYO, PACASMAYO, LA LIBERTAD.</t>
   </si>
   <si>
     <t>CEM REGULAR CHICLAYO</t>
@@ -2114,7 +2114,7 @@
     <t>CHICLAYO</t>
   </si>
   <si>
-    <t>AV. CHINCHAYSUYO 970 URB. FEDERICO  VILLARREAL</t>
+    <t>AV. CHINCHAYSUYO 970 URB. FEDERICO VILLARREAL</t>
   </si>
   <si>
     <t>CEM REGULAR LAMBAYEQUE</t>
@@ -2138,7 +2138,7 @@
     <t>JOSE LEONARDO ORTIZ</t>
   </si>
   <si>
-    <t>CLL. SAN JUAN MASIAS 140 PUEBLO JOVEN  MICAELA BASTIDAS - JOSE LEONARDO ORTIZ</t>
+    <t>CLL. SAN JUAN MASIAS 140 PUEBLO JOVEN MICAELA BASTIDAS - JOSE LEONARDO ORTIZ</t>
   </si>
   <si>
     <t>CEM 24 HORAS ZANA</t>
@@ -2147,19 +2147,19 @@
     <t>SANA</t>
   </si>
   <si>
-    <t>CLL. SAN FRANCISCO No 456, SANA - CHICLAYO -  LAMBAYEQUE.</t>
+    <t>CLL. SAN FRANCISCO No 456, SANA - CHICLAYO - LAMBAYEQUE.</t>
   </si>
   <si>
     <t>CEM 24 HORAS LAMBAYEQUE</t>
   </si>
   <si>
-    <t>CLL. DOS DE MAYO Ndeg 316, LAMBAYEQUE -  LAMBAYEQUE - LAMBAYEQUE.</t>
+    <t>CLL. DOS DE MAYO Ndeg 316, LAMBAYEQUE - LAMBAYEQUE - LAMBAYEQUE.</t>
   </si>
   <si>
     <t>CEM 24 HORAS DE FAMILIA CHICLAYO</t>
   </si>
   <si>
-    <t>AV. SAENZ PENA Ndeg 2360, ESQUINA CON AV.  CASIQUE COLLIQUE</t>
+    <t>AV. SAENZ PENA Ndeg 2360, ESQUINA CON AV. CASIQUE COLLIQUE</t>
   </si>
   <si>
     <t>CEM 24 HORAS SECTORIAL OLMOS</t>
@@ -2168,31 +2168,31 @@
     <t>OLMOS</t>
   </si>
   <si>
-    <t>AV. AUGUSTO B. LEGUIA Ndeg 430, OLMOS,  LAMBAYEQUE, LAMBAYEQUE.</t>
+    <t>AV. AUGUSTO B. LEGUIA Ndeg 430, OLMOS, LAMBAYEQUE, LAMBAYEQUE.</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAN MARTIN DE PORRES - LAMBAYEQUE</t>
   </si>
   <si>
-    <t>CLL. CAPITAN ORBEGOZO Y SAN ANTONIO,  PUEBLO JOVEN SAN MARTIN DE PORRAS</t>
+    <t>CLL. CAPITAN ORBEGOZO Y SAN ANTONIO, PUEBLO JOVEN SAN MARTIN DE PORRAS</t>
   </si>
   <si>
     <t>CEM 24 HORAS CAMPODONICO</t>
   </si>
   <si>
-    <t>AV. JORGE CHAVEZ Ndeg 801, CHICLAYO, CHICLAYO,  LAMBAYEQUE.</t>
+    <t>AV. JORGE CHAVEZ Ndeg 801, CHICLAYO, CHICLAYO, LAMBAYEQUE.</t>
   </si>
   <si>
     <t>CEM 24 HORAS JOSE LEONARDO ORTIZ</t>
   </si>
   <si>
-    <t>AV ARGENTINA No 2251 URB. BARSALLO - JOSE  LEONARDO ORTIZ</t>
+    <t>AV ARGENTINA No 2251 URB. BARSALLO - JOSE LEONARDO ORTIZ</t>
   </si>
   <si>
     <t>CEM 24 HORAS FERRENAFE</t>
   </si>
   <si>
-    <t>AV. TACNA Ndeg 620 - FERRENAFE - FERRENAFE -  LAMBAYEQUE</t>
+    <t>AV. TACNA Ndeg 620 - FERRENAFE - FERRENAFE - LAMBAYEQUE</t>
   </si>
   <si>
     <t>CEM REGULAR LIMA</t>
@@ -2210,7 +2210,7 @@
     <t>LA MOLINA</t>
   </si>
   <si>
-    <t>CALLE LOS ALMENDROS CDRA 5 S/N URB  AMPLIACION RESIDENCIAL MONTERRICO-LA  MOLINA</t>
+    <t>CALLE LOS ALMENDROS CDRA 5 S/N URB AMPLIACION RESIDENCIAL MONTERRICO-LA MOLINA</t>
   </si>
   <si>
     <t>CEM REGULAR COMAS</t>
@@ -2219,16 +2219,16 @@
     <t>COMAS</t>
   </si>
   <si>
-    <t>PJE. NEPTUNO S/N KM. 14.5 TUPAC AMARU-INT.  INABIF-COMAS</t>
+    <t>PJE. NEPTUNO S/N KM. 14.5 TUPAC AMARU-INT. INABIF-COMAS</t>
   </si>
   <si>
     <t>CEM REGULAR SAN JUAN DE MIRAFLORES</t>
   </si>
   <si>
-    <t>SAN JUAN DE  MIRAFLORES</t>
-  </si>
-  <si>
-    <t>AV CENTRAL S/N SECTOR ALFONSO UGARTE  PAMPLONA ALTA-INT. DE SEDIF-INABIF-SJM</t>
+    <t>SAN JUAN DE MIRAFLORES</t>
+  </si>
+  <si>
+    <t>AV CENTRAL S/N SECTOR ALFONSO UGARTE PAMPLONA ALTA-INT. DE SEDIF-INABIF-SJM</t>
   </si>
   <si>
     <t>CEM REGULAR SURQUILLO</t>
@@ -2243,10 +2243,10 @@
     <t>CEM REGULAR SAN JUAN DE LURIGANCHO</t>
   </si>
   <si>
-    <t>SAN JUAN DE  LURIGANCHO</t>
-  </si>
-  <si>
-    <t>VILLA CAMPOY, CALLE 25 S/N, 3ERA ETAPA DE CAMPOY  (ASOC COMPRADORES DE CAMPOY II ETAPA MZ V LT 1  /EX INSTITUTO "LOCAL DE LA DEMUNA Y CSMC</t>
+    <t>SAN JUAN DE LURIGANCHO</t>
+  </si>
+  <si>
+    <t>VILLA CAMPOY, CALLE 25 S/N, 3ERA ETAPA DE CAMPOY (ASOC COMPRADORES DE CAMPOY II ETAPA MZ V LT 1 /EX INSTITUTO "LOCAL DE LA DEMUNA Y CSMC</t>
   </si>
   <si>
     <t>CEM REGULAR SURCO</t>
@@ -2255,7 +2255,7 @@
     <t>SURCO</t>
   </si>
   <si>
-    <t>JR. LAS ORQUIDEAS MZ N1 LT 1-URB. SAN  IGNACIO-MONTERRICO - SURCO</t>
+    <t>JR. LAS ORQUIDEAS MZ N1 LT 1-URB. SAN IGNACIO-MONTERRICO - SURCO</t>
   </si>
   <si>
     <t>CEM REGULAR VILLA EL SALVADOR</t>
@@ -2264,7 +2264,7 @@
     <t>VILLA EL SALVADOR</t>
   </si>
   <si>
-    <t>SECTOR GRUPO 21 MAZANA E LOTE 13 ENTRE LA  AV. ALAMO Y MARIATEGUI FRENTE A  SERENAZGO</t>
+    <t>SECTOR GRUPO 21 MAZANA E LOTE 13 ENTRE LA AV. ALAMO Y MARIATEGUI FRENTE A SERENAZGO</t>
   </si>
   <si>
     <t>CEM REGULAR LOS OLIVOS</t>
@@ -2273,16 +2273,16 @@
     <t>LOS OLIVOS</t>
   </si>
   <si>
-    <t>AV. UNIVERSITARIA CDRA 2086-LOS OLIVOS,  PALACIO DE LA JUVENTUD-6TOPISO</t>
+    <t>AV. UNIVERSITARIA CDRA 2086-LOS OLIVOS, PALACIO DE LA JUVENTUD-6TOPISO</t>
   </si>
   <si>
     <t>CEM REGULAR SAN MARTIN DE PORRES</t>
   </si>
   <si>
-    <t>SAN MARTIN DE  PORRES</t>
-  </si>
-  <si>
-    <t>AV. CANTA CALLAO, MZ A LT 11, URB LAS  BEGONIAS PRIMERA ETAPA</t>
+    <t>SAN MARTIN DE PORRES</t>
+  </si>
+  <si>
+    <t>AV. CANTA CALLAO, MZ A LT 11, URB LAS BEGONIAS PRIMERA ETAPA</t>
   </si>
   <si>
     <t>CEM REGULAR MANCHAY</t>
@@ -2291,16 +2291,16 @@
     <t>MANCHAY</t>
   </si>
   <si>
-    <t>AV. VICTOR MALASQUES CHACALTANA S/N CPR  PORTADA 1 DE MANCHAY-CENTRO CULTURAL  DEL ESPIRITU SANTO</t>
+    <t>AV. VICTOR MALASQUES CHACALTANA S/N CPR PORTADA 1 DE MANCHAY-CENTRO CULTURAL DEL ESPIRITU SANTO</t>
   </si>
   <si>
     <t>CEM REGULAR VILLA MARIA DEL TRIUNFO</t>
   </si>
   <si>
-    <t>VILLA MARIA DEL  TRIUNFO</t>
-  </si>
-  <si>
-    <t>PJE PAUL ESCOBAR 105-VALLECITO BAJO-SAN  GABRIEL-VMT</t>
+    <t>VILLA MARIA DEL TRIUNFO</t>
+  </si>
+  <si>
+    <t>PJE PAUL ESCOBAR 105-VALLECITO BAJO-SAN GABRIEL-VMT</t>
   </si>
   <si>
     <t>CEM REGULAR EL AGUSTINO</t>
@@ -2309,7 +2309,7 @@
     <t>EL AGUSTINO</t>
   </si>
   <si>
-    <t>JR. MANUEL TEJADA DIAZ 202 - URB.  CORPORACION EL AGUSTINO 1ER PISO</t>
+    <t>JR. MANUEL TEJADA DIAZ 202 - URB. CORPORACION EL AGUSTINO 1ER PISO</t>
   </si>
   <si>
     <t>CEM REGULAR CARABAYLLO</t>
@@ -2318,7 +2318,7 @@
     <t>CARABAYLLO</t>
   </si>
   <si>
-    <t>AV. SAN LUCAS S/N MZ J LT 01 AAHH VILLA SAN  ANTONIO CARABAYLLO-LIMA</t>
+    <t>AV. SAN LUCAS S/N MZ J LT 01 AAHH VILLA SAN ANTONIO CARABAYLLO-LIMA</t>
   </si>
   <si>
     <t>CEM REGULAR INDEPENDENCIA</t>
@@ -2327,7 +2327,7 @@
     <t>INDEPENDENCIA</t>
   </si>
   <si>
-    <t>AV. HUAMACHUCHO S/N - INTERIOR COLISEO DE  LA AMISTAD</t>
+    <t>AV. HUAMACHUCHO S/N - INTERIOR COLISEO DE LA AMISTAD</t>
   </si>
   <si>
     <t>CEM REGULAR PUENTE PIEDRA</t>
@@ -2345,7 +2345,7 @@
     <t>JESUS MARIA</t>
   </si>
   <si>
-    <t>CONCHA ACUSTICA DE CAMPO MARTE - AV.  HORACIO URTEAGA CUADRA 5, DISTRITO DE  JESUS MARIA</t>
+    <t>CONCHA ACUSTICA DE CAMPO MARTE - AV. HORACIO URTEAGA CUADRA 5, DISTRITO DE JESUS MARIA</t>
   </si>
   <si>
     <t>CEM REGULAR ANCON</t>
@@ -2354,7 +2354,7 @@
     <t>ANCON</t>
   </si>
   <si>
-    <t>AV. 11 DE ENERO CRUCE CON CALLE HUARAL,  ASOCIACION LA VARIANTE, ANCON.</t>
+    <t>AV. 11 DE ENERO CRUCE CON CALLE HUARAL, ASOCIACION LA VARIANTE, ANCON.</t>
   </si>
   <si>
     <t>CEM REGULAR CHOSICA</t>
@@ -2363,7 +2363,7 @@
     <t>CHOSICA</t>
   </si>
   <si>
-    <t>AV. ENRIQUE GUZMAN Y VALLE S/N INT. DE CASA  DE LA MUJER DE CHOSICA 3ER PISO</t>
+    <t>AV. ENRIQUE GUZMAN Y VALLE S/N INT. DE CASA DE LA MUJER DE CHOSICA 3ER PISO</t>
   </si>
   <si>
     <t>CEM REGULAR CIENEGUILLA</t>
@@ -2372,7 +2372,7 @@
     <t>CIENEGUILLA</t>
   </si>
   <si>
-    <t>AA. HH. MAGDA PORTAL AV. SAN MARTIN MZ L  LT 1-CIENEGUILLA</t>
+    <t>AA. HH. MAGDA PORTAL AV. SAN MARTIN MZ L LT 1-CIENEGUILLA</t>
   </si>
   <si>
     <t>CEM REGULAR LA VICTORIA</t>
@@ -2381,19 +2381,19 @@
     <t>LA VICTORIA</t>
   </si>
   <si>
-    <t>JR. SEBASTIAN BARRANCA Ndeg 290-2DO PISO-LA  VICTORIA</t>
+    <t>JR. SEBASTIAN BARRANCA Ndeg 290-2DO PISO-LA VICTORIA</t>
   </si>
   <si>
     <t>CEM REGULAR SAN MIGUEL - LIMA</t>
   </si>
   <si>
-    <t>LA CASA DE LA CULTURA-CALLE FEDERICO  GALLESE 420-SAN MIGUEL</t>
+    <t>LA CASA DE LA CULTURA-CALLE FEDERICO GALLESE 420-SAN MIGUEL</t>
   </si>
   <si>
     <t>CEM 24 HORAS VILLA MARIA DEL TRIUNFO</t>
   </si>
   <si>
-    <t>AV. EL TRIUNFO Ndeg 374-2DO PISO-CERCADO  VILLA MARIA DEL TRIUNFO-LIMA</t>
+    <t>AV. EL TRIUNFO Ndeg 374-2DO PISO-CERCADO VILLA MARIA DEL TRIUNFO-LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS CHORRILLOS</t>
@@ -2402,7 +2402,7 @@
     <t>CHORRILLOS</t>
   </si>
   <si>
-    <t>AV. DEFENSORES DEL MORRO Ndeg 650- CHORRILLOS-LIMA-CDRA 6 DE EX. AVENIDA  HUAYLAS</t>
+    <t>AV. DEFENSORES DEL MORRO Ndeg 650- CHORRILLOS-LIMA-CDRA 6 DE EX. AVENIDA HUAYLAS</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAGITARIO</t>
@@ -2417,7 +2417,7 @@
     <t>CEM 24 HORAS DE FAMILIA EL AGUSTINO</t>
   </si>
   <si>
-    <t>JR. ALFREDO TEJADA DIAZ Ndeg 237 - URB.  POPULAR LA CORPORACION</t>
+    <t>JR. ALFREDO TEJADA DIAZ Ndeg 237 - URB. POPULAR LA CORPORACION</t>
   </si>
   <si>
     <t>CEM 24 HORAS LAURA CALLER</t>
@@ -2429,19 +2429,19 @@
     <t>CEM 24 HORAS SAN PEDRO DE CARABAYLLO</t>
   </si>
   <si>
-    <t>JR. MIGUEL GRAU Ndeg285-CARABAYLLO-LIMA- ESPALDAS DEL COLEGIO REPUBLICA DE  ARGENTINA</t>
+    <t>JR. MIGUEL GRAU Ndeg285-CARABAYLLO-LIMA- ESPALDAS DEL COLEGIO REPUBLICA DE ARGENTINA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAN MARTIN DE PORRES</t>
   </si>
   <si>
-    <t>CALLE MANUEL VILLAR S/N, CDRA 4-SAN MARTIN  DE PORRRES-LIMA-ALT. DE CDRA 4 DE HABICH</t>
+    <t>CALLE MANUEL VILLAR S/N, CDRA 4-SAN MARTIN DE PORRRES-LIMA-ALT. DE CDRA 4 DE HABICH</t>
   </si>
   <si>
     <t>CEM 24 HORAS DE FAMILIA COLLIQUE</t>
   </si>
   <si>
-    <t>AV. FRANCISCO DE ZELA S/N 5TA. ZONA COLLIQUE COMAS  REF. AL FRENTE DEL COLEGIO FE Y ALEGRIA 13</t>
+    <t>AV. FRANCISCO DE ZELA S/N 5TA. ZONA COLLIQUE COMAS REF. AL FRENTE DEL COLEGIO FE Y ALEGRIA 13</t>
   </si>
   <si>
     <t>CEM 24 HORAS SANTA ANITA</t>
@@ -2450,7 +2450,7 @@
     <t>SANTA ANITA</t>
   </si>
   <si>
-    <t>JR. CIRO ALEGRIA Ndeg 555-3ER PISO COOPERATIVA  UNIVERSAL-SANTA ANITA-LIMA</t>
+    <t>JR. CIRO ALEGRIA Ndeg 555-3ER PISO COOPERATIVA UNIVERSAL-SANTA ANITA-LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS PUEBLO LIBRE</t>
@@ -2459,7 +2459,7 @@
     <t>PUEBLO LIBRE</t>
   </si>
   <si>
-    <t>PASAJE. GENERAL VIVANCO Ndeg 101-PUEBLO  LIBRE-LIMA-ALT. DE CDRA 5-6 DE LA AV. SUCRE</t>
+    <t>PASAJE. GENERAL VIVANCO Ndeg 101-PUEBLO LIBRE-LIMA-ALT. DE CDRA 5-6 DE LA AV. SUCRE</t>
   </si>
   <si>
     <t>CEM 24 HORAS LURIN</t>
@@ -2486,13 +2486,13 @@
     <t>ATE</t>
   </si>
   <si>
-    <t>AV. NICOLAS AYLLON, CARRETERA CENTRAL S/N  KM 7.5</t>
+    <t>AV. NICOLAS AYLLON, CARRETERA CENTRAL S/N KM 7.5</t>
   </si>
   <si>
     <t>CEM 24 HORAS CONDEVILLA</t>
   </si>
   <si>
-    <t>JR. BERMUDEZ Y BILLINGHURST S/N-SAN MARTIN  DE PORRES-LIMA-ALT. DE LA 36 DE JOSE GRANDA</t>
+    <t>JR. BERMUDEZ Y BILLINGHURST S/N-SAN MARTIN DE PORRES-LIMA-ALT. DE LA 36 DE JOSE GRANDA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SANTA CLARA</t>
@@ -2504,31 +2504,31 @@
     <t>CEM 24 HORAS DE FAMILIA CANTO REY</t>
   </si>
   <si>
-    <t>CALLE RIO CHIRA S/N URB. CANTO REY - SAN  JUAN DE LURIGANCHO-LIMA</t>
+    <t>CALLE RIO CHIRA S/N URB. CANTO REY - SAN JUAN DE LURIGANCHO-LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS LA MOLINA</t>
   </si>
   <si>
-    <t>AV. ELIAS APARICIO CDRA 7 LA PLANICIE S/N-LA  MOLINA-LIMA-COSTADO DE MUNICIPIO</t>
+    <t>AV. ELIAS APARICIO CDRA 7 LA PLANICIE S/N-LA MOLINA-LIMA-COSTADO DE MUNICIPIO</t>
   </si>
   <si>
     <t>CEM 24 HORAS APOLO</t>
   </si>
   <si>
-    <t>JR. 3 DE FEBRERO Ndeg 1050-URB. APOLO-LA  VICTORIA-PARADERO APOLO</t>
+    <t>JR. 3 DE FEBRERO Ndeg 1050-URB. APOLO-LA VICTORIA-PARADERO APOLO</t>
   </si>
   <si>
     <t>CEM 24 HORAS PUENTE PIEDRA</t>
   </si>
   <si>
-    <t>AV. BUENOS AIRES S/N CDRA 2, ESQUINA CON  REPUBLICA DE VENEZUELA-PLAZA DE ARMAS DE  PUENTE PIEDRA</t>
+    <t>AV. BUENOS AIRES S/N CDRA 2, ESQUINA CON REPUBLICA DE VENEZUELA-PLAZA DE ARMAS DE PUENTE PIEDRA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAN ISIDRO</t>
   </si>
   <si>
-    <t>CALLE ANTEQUERA Ndeg 116-SAN ISIDRO-LIMA-ALT.  DE CDRA 29 DE LA AV. AREQUIPA</t>
+    <t>CALLE ANTEQUERA Ndeg 116-SAN ISIDRO-LIMA-ALT. DE CDRA 29 DE LA AV. AREQUIPA</t>
   </si>
   <si>
     <t>CEM 24 HORAS BARRANCO</t>
@@ -2537,7 +2537,7 @@
     <t>BARRANCO</t>
   </si>
   <si>
-    <t>JR. PROLONG. SAN MARTIN No 250-BARRANCO-A  3 CDRAS DE PLAZA DE BARRANCO</t>
+    <t>JR. PROLONG. SAN MARTIN No 250-BARRANCO-A 3 CDRAS DE PLAZA DE BARRANCO</t>
   </si>
   <si>
     <t>CEM 24 HORAS LINCE</t>
@@ -2552,19 +2552,19 @@
     <t>CEM 24 HORAS SAN LUIS</t>
   </si>
   <si>
-    <t>CALLE JOSE ORENGO Ndeg 903 SAN LUIS-LIMA-ALT.  DE CDRA 1105 DE LA AV. SAN JUAN</t>
+    <t>CALLE JOSE ORENGO Ndeg 903 SAN LUIS-LIMA-ALT. DE CDRA 1105 DE LA AV. SAN JUAN</t>
   </si>
   <si>
     <t>CEM 24 HORAS ALFONSO UGARTE</t>
   </si>
   <si>
-    <t>AV. ALFONSO UGARTE Ndeg 1352-LIMA-FRENTE DEL  PARADERO ESPANA DEL METROPOLITANO</t>
+    <t>AV. ALFONSO UGARTE Ndeg 1352-LIMA-FRENTE DEL PARADERO ESPANA DEL METROPOLITANO</t>
   </si>
   <si>
     <t>CEM 24 HORAS SANTA ELIZABETH</t>
   </si>
   <si>
-    <t>JR. NEVADO HUANDOY S/N MZ F LOTE 18-URB.  SANTA ELIZABETH-SAN JUAN DE LURIGANCHO</t>
+    <t>JR. NEVADO HUANDOY S/N MZ F LOTE 18-URB. SANTA ELIZABETH-SAN JUAN DE LURIGANCHO</t>
   </si>
   <si>
     <t>CEM 24 HORAS SOL DE ORO</t>
@@ -2576,7 +2576,7 @@
     <t>CEM 24 HORAS CAJA DE AGUA</t>
   </si>
   <si>
-    <t>CALLE MOQUEGUA CON TRUJILLO-URB. CAJA DE  AGUA - SAN JUAN DE LURIGANCHO</t>
+    <t>CALLE MOQUEGUA CON TRUJILLO-URB. CAJA DE AGUA - SAN JUAN DE LURIGANCHO</t>
   </si>
   <si>
     <t>CEM 24 HORAS HUAYCAN</t>
@@ -2588,19 +2588,19 @@
     <t>CEM 24 HORAS VILLA ALEJANDRO</t>
   </si>
   <si>
-    <t>MZ O S/N 2DA ETAPA-AMPLIACION VILLA  ALEJANDRO-LURIN-LIMA</t>
+    <t>MZ O S/N 2DA ETAPA-AMPLIACION VILLA ALEJANDRO-LURIN-LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS ANCON</t>
   </si>
   <si>
-    <t>AV. JOSE CARLOS MARIATEGUI CRUCE CON AV.  LAS COLINAS-AAHH ESTERAS II-ANCON-LIMA</t>
+    <t>AV. JOSE CARLOS MARIATEGUI CRUCE CON AV. LAS COLINAS-AAHH ESTERAS II-ANCON-LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS PAMPLONA II</t>
   </si>
   <si>
-    <t>AV. EDILBERTO RAMOS S/N-LA RINCONADA-SAN  JUAN DE MIRAFLORES-LIMA</t>
+    <t>AV. EDILBERTO RAMOS S/N-LA RINCONADA-SAN JUAN DE MIRAFLORES-LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS PALOMINO</t>
@@ -2618,7 +2618,7 @@
     <t>CEM 24 HORAS BAYOVAR</t>
   </si>
   <si>
-    <t>JR. PRIMERO DE MAYO S/N CUADRA 3 III ZONA -  BAYOVAR - SJL -LIMA</t>
+    <t>JR. PRIMERO DE MAYO S/N CUADRA 3 III ZONA - BAYOVAR - SJL -LIMA</t>
   </si>
   <si>
     <t>CEM REGULAR CHACLACAYO</t>
@@ -2627,7 +2627,7 @@
     <t>CHACLACAYO</t>
   </si>
   <si>
-    <t>NICOLAS AYLLON CRUCE CON AV. GERANIOS S/N -  CHACLACAYO</t>
+    <t>NICOLAS AYLLON CRUCE CON AV. GERANIOS S/N - CHACLACAYO</t>
   </si>
   <si>
     <t>CEM 24 HORAS CIUDAD Y CAMPO</t>
@@ -2636,19 +2636,19 @@
     <t>RIMAC</t>
   </si>
   <si>
-    <t>AV. JACINTO BENAVENTE No 258 URB. CIUDAD Y  CAMPO-RIMAC-LIMA</t>
+    <t>AV. JACINTO BENAVENTE No 258 URB. CIUDAD Y CAMPO-RIMAC-LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS MARISCAL CACERES</t>
   </si>
   <si>
-    <t>JR. CORONEL ALTHAUS MZ N-8 LT 1 Y 2-URB  MARISCAL CACERES-SAN JUAN DE LURIGANCHO- LIMA</t>
+    <t>JR. CORONEL ALTHAUS MZ N-8 LT 1 Y 2-URB MARISCAL CACERES-SAN JUAN DE LURIGANCHO- LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS MARANGA</t>
   </si>
   <si>
-    <t>AV. PRECURSORES CDRA 4, MARANGA-SAN  MIGUEL-LIMA</t>
+    <t>AV. PRECURSORES CDRA 4, MARANGA-SAN MIGUEL-LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS INDEPENDENCIA</t>
@@ -2663,7 +2663,7 @@
     <t>LURIGANCHO</t>
   </si>
   <si>
-    <t>CRUCE DE AV. LAS GARZAS Y AV. EL POLO, URB.  EL CLUB SANTA MARIA DE HUACHIPA- LURIGANCHO-LIMA</t>
+    <t>CRUCE DE AV. LAS GARZAS Y AV. EL POLO, URB. EL CLUB SANTA MARIA DE HUACHIPA- LURIGANCHO-LIMA</t>
   </si>
   <si>
     <t>CEM REGULAR MAGDALENA DEL MAR</t>
@@ -2672,7 +2672,7 @@
     <t>MAGDALENA DEL MAR</t>
   </si>
   <si>
-    <t>CALLE RODOLFO RUTTE 718-MAGDALENA DEL  MAR</t>
+    <t>CALLE RODOLFO RUTTE 718-MAGDALENA DEL MAR</t>
   </si>
   <si>
     <t>CEM 24 HORAS BRENA</t>
@@ -2699,7 +2699,7 @@
     <t>HUACHO</t>
   </si>
   <si>
-    <t>CALLE COLON 533 HUACHO - A UNA CUADRA DE  PLAZA DEL SOL</t>
+    <t>CALLE COLON 533 HUACHO - A UNA CUADRA DE PLAZA DEL SOL</t>
   </si>
   <si>
     <t>CEM REGULAR CANETE</t>
@@ -2708,10 +2708,10 @@
     <t>CANETE</t>
   </si>
   <si>
-    <t>SAN VICENTE DE  CANETE</t>
-  </si>
-  <si>
-    <t>AVENIDA MARISCAL BENAVIDES S/N / DIST. DE  SAN VICENTE</t>
+    <t>SAN VICENTE DE CANETE</t>
+  </si>
+  <si>
+    <t>AVENIDA MARISCAL BENAVIDES S/N / DIST. DE SAN VICENTE</t>
   </si>
   <si>
     <t>CEM REGULAR HUAROCHIRI</t>
@@ -2732,7 +2732,7 @@
     <t>YAUYOS</t>
   </si>
   <si>
-    <t>JR. ENRIQUE SWAYNE S/N 1ER PISO DE LA CASA  DEL MAESTRO</t>
+    <t>JR. ENRIQUE SWAYNE S/N 1ER PISO DE LA CASA DEL MAESTRO</t>
   </si>
   <si>
     <t>CEM REGULAR HUARAL</t>
@@ -2741,7 +2741,7 @@
     <t>HUARAL</t>
   </si>
   <si>
-    <t>CALLE LA HUAQUILLA CON CALLE EL PALMO.  EDIFICIO LA DEMUNA 4TO PISO</t>
+    <t>CALLE LA HUAQUILLA CON CALLE EL PALMO. EDIFICIO LA DEMUNA 4TO PISO</t>
   </si>
   <si>
     <t>CEM REGULAR BARRANCA</t>
@@ -2750,7 +2750,7 @@
     <t>BARRANCA</t>
   </si>
   <si>
-    <t>URB. SANTA CATALINA DENTRO DEL COLISEO  CERRADO</t>
+    <t>URB. SANTA CATALINA DENTRO DEL COLISEO CERRADO</t>
   </si>
   <si>
     <t>CEM REGULAR OYON</t>
@@ -2759,7 +2759,7 @@
     <t>OYON</t>
   </si>
   <si>
-    <t>JIRON UNION S/N (FRENTE AL MERCADO  CENTRAL)</t>
+    <t>JIRON UNION S/N (FRENTE AL MERCADO CENTRAL)</t>
   </si>
   <si>
     <t>CEM REGULAR CANTA</t>
@@ -2768,7 +2768,7 @@
     <t>CANTA</t>
   </si>
   <si>
-    <t>AVENIDA CIRCUNVALACION S/N (AL COSTADO  DEL CEMENTERIO DE CANTA)</t>
+    <t>AVENIDA CIRCUNVALACION S/N (AL COSTADO DEL CEMENTERIO DE CANTA)</t>
   </si>
   <si>
     <t>CEM REGULAR CAJATAMBO</t>
@@ -2777,7 +2777,7 @@
     <t>CAJATAMBO</t>
   </si>
   <si>
-    <t>CALLE PLAZA DE ARMAS Ndeg 109 FRENTE A LA  PLAZA DE ARMAS</t>
+    <t>CALLE PLAZA DE ARMAS Ndeg 109 FRENTE A LA PLAZA DE ARMAS</t>
   </si>
   <si>
     <t>CEM 24 HORAS IMPERIAL</t>
@@ -2786,7 +2786,7 @@
     <t>IMPERIAL</t>
   </si>
   <si>
-    <t>JR. DOS DE MAYO Ndeg 350, IMPERIAL - CANETE -  LIMA.</t>
+    <t>JR. DOS DE MAYO Ndeg 350, IMPERIAL - CANETE - LIMA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS CHANCAY</t>
@@ -2795,13 +2795,13 @@
     <t>CHANCAY</t>
   </si>
   <si>
-    <t>AVENIDA BOLIVAR Ndeg 150, CHANCAY - HUARAL -  LIMA</t>
+    <t>AVENIDA BOLIVAR Ndeg 150, CHANCAY - HUARAL - LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS HUACHO</t>
   </si>
   <si>
-    <t>JIRON SALAVERRY Ndeg 279, HUACHO - HUAURA -  LIMA.</t>
+    <t>JIRON SALAVERRY Ndeg 279, HUACHO - HUAURA - LIMA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS JICAMARCA</t>
@@ -2810,25 +2810,25 @@
     <t>SAN ANTONIO</t>
   </si>
   <si>
-    <t>MZ Q-1 S/N , OVALO PRINCIPAL DE JICAMARCA,  URBANIZACION JICAMARCA ANEXO 8 DE  HUAROCHIRI, SAN ANTONIO - HUAROCHIRI</t>
+    <t>MZ Q-1 S/N , OVALO PRINCIPAL DE JICAMARCA, URBANIZACION JICAMARCA ANEXO 8 DE HUAROCHIRI, SAN ANTONIO - HUAROCHIRI</t>
   </si>
   <si>
     <t>CEM 24 HORAS BARRANCA</t>
   </si>
   <si>
-    <t>CALLE INDEPENDENCIA S/N, ESQUINA CON URB.  SANTA SORAIDA, BARRANCA - BARRANCA - LIMA</t>
+    <t>CALLE INDEPENDENCIA S/N, ESQUINA CON URB. SANTA SORAIDA, BARRANCA - BARRANCA - LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAN VICENTE DE CANETE</t>
   </si>
   <si>
-    <t>JIRON MIGUEL GRAU CON CALLE SANTA RITA S/N -  SAN VICENTE DE CANETE - CANETE - LIMA.  REFERENCIA: A MEDIA CUADRA DE LA AGENCIA  SOYUS DE CANETE.</t>
+    <t>JIRON MIGUEL GRAU CON CALLE SANTA RITA S/N - SAN VICENTE DE CANETE - CANETE - LIMA. REFERENCIA: A MEDIA CUADRA DE LA AGENCIA SOYUS DE CANETE.</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAN ANTONIO - CANETE</t>
   </si>
   <si>
-    <t>AVENIDA LIBERTAD No 434 - 436 SAN ANTONIO -  CANETE - LIMA</t>
+    <t>AVENIDA LIBERTAD No 434 - 436 SAN ANTONIO - CANETE - LIMA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAYAN</t>
@@ -2837,7 +2837,7 @@
     <t>SAYAN</t>
   </si>
   <si>
-    <t>PLAZA DE ARMAS DE SAYAN S/N - SAYAN -  HUAURA - LIMA. REFERENCIA: PLAZA DE ARMAS  DE SAYAN. {COMISARIA DE SAYAN}</t>
+    <t>PLAZA DE ARMAS DE SAYAN S/N - SAYAN - HUAURA - LIMA. REFERENCIA: PLAZA DE ARMAS DE SAYAN. {COMISARIA DE SAYAN}</t>
   </si>
   <si>
     <t>CEM 24 HORAS PARAMONGA</t>
@@ -2846,22 +2846,22 @@
     <t>PARAMONGA</t>
   </si>
   <si>
-    <t>AV. CENTRAL Ndeg 275 - INTERIOR DE LA  COMISARIA DE PARAMONGA</t>
+    <t>AV. CENTRAL Ndeg 275 - INTERIOR DE LA COMISARIA DE PARAMONGA</t>
   </si>
   <si>
     <t>CEM 24 HORAS JICAMARCA II</t>
   </si>
   <si>
-    <t>AV. TUPAC INCA YUPANQUI MANZANA O S/N  OVALO PRINCIPAL DE SAN ANTONIO ANEXO 22</t>
+    <t>AV. TUPAC INCA YUPANQUI MANZANA O S/N OVALO PRINCIPAL DE SAN ANTONIO ANEXO 22</t>
   </si>
   <si>
     <t>CEM 24 HORAS YANGAS</t>
   </si>
   <si>
-    <t>SANTA ROSA DE  QUIVES</t>
-  </si>
-  <si>
-    <t>COMISARIA DE YANGAS, CARR. LIMA CANTA SN  KM.56</t>
+    <t>SANTA ROSA DE QUIVES</t>
+  </si>
+  <si>
+    <t>COMISARIA DE YANGAS, CARR. LIMA CANTA SN KM.56</t>
   </si>
   <si>
     <t>CEM REGULAR IQUITOS</t>
@@ -2903,13 +2903,13 @@
     <t>CEM REGULAR CABALLO COCHA</t>
   </si>
   <si>
-    <t>MARISCAL RAMON  CASTILLA</t>
+    <t>MARISCAL RAMON CASTILLA</t>
   </si>
   <si>
     <t>RAMON CASTILLA</t>
   </si>
   <si>
-    <t>CARLOS P. SAENZ - 1RA CUADRA -2DO PISO,  MUNICIPALIDAD CABALLO COCHA -MARISCAL  RAMON CASTILLLA</t>
+    <t>CARLOS P. SAENZ - 1RA CUADRA -2DO PISO, MUNICIPALIDAD CABALLO COCHA -MARISCAL RAMON CASTILLLA</t>
   </si>
   <si>
     <t>CEM REGULAR DATEM DEL MARANON</t>
@@ -2975,7 +2975,7 @@
     <t>CEM 24 HORAS YURIMAGUAS</t>
   </si>
   <si>
-    <t>CALLE CONDAMINE Ndeg 200 -BARRIO MOISES  TONG LEE</t>
+    <t>CALLE CONDAMINE Ndeg 200 -BARRIO MOISES TONG LEE</t>
   </si>
   <si>
     <t>CEM 24 HORAS 09 DE OCTUBRE</t>
@@ -2984,7 +2984,7 @@
     <t>BELEN</t>
   </si>
   <si>
-    <t>CALLE TAHUANTINSUYO CON LA CALLE  PROGRESO SIN #, DENTRO DE LA COMISARIA 09  DE OCTUBRE</t>
+    <t>CALLE TAHUANTINSUYO CON LA CALLE PROGRESO SIN #, DENTRO DE LA COMISARIA 09 DE OCTUBRE</t>
   </si>
   <si>
     <t>CEM REGULAR MADRE DE DIOS</t>
@@ -2996,7 +2996,7 @@
     <t>TAMBOPATA</t>
   </si>
   <si>
-    <t>AVENIDA 2 DE MAYO Ndeg710, PUERTO  MALDONADO</t>
+    <t>AVENIDA 2 DE MAYO Ndeg710, PUERTO MALDONADO</t>
   </si>
   <si>
     <t>CEM REGULAR IBERIA</t>
@@ -3008,7 +3008,7 @@
     <t>IBERIA</t>
   </si>
   <si>
-    <t>PASAJE LOS OLIVOS MZ L, LTE. 5 - BARRIO EL  BAMBU</t>
+    <t>PASAJE LOS OLIVOS MZ L, LTE. 5 - BARRIO EL BAMBU</t>
   </si>
   <si>
     <t>CEM REGULAR HUEPETUHE</t>
@@ -3047,7 +3047,7 @@
     <t>MARISCAL NIETO</t>
   </si>
   <si>
-    <t>CALLE MOQUEGUA 949 CERCADO DE  MOQUEGUA</t>
+    <t>CALLE MOQUEGUA 949 CERCADO DE MOQUEGUA</t>
   </si>
   <si>
     <t>CEM REGULAR ILO</t>
@@ -3062,7 +3062,7 @@
     <t>CEM REGULAR GENERAL SANCHEZ CERRO</t>
   </si>
   <si>
-    <t>GENERAL SANCHEZ  CERRO</t>
+    <t>GENERAL SANCHEZ CERRO</t>
   </si>
   <si>
     <t>OMATE</t>
@@ -3083,7 +3083,7 @@
     <t>CEM 24 HORAS SAN ANTONIO</t>
   </si>
   <si>
-    <t>AVENIDA ANTONIO CABELLO MZ J5 LOTE 01  ASOCIACION EL ALTIPLANO</t>
+    <t>AVENIDA ANTONIO CABELLO MZ J5 LOTE 01 ASOCIACION EL ALTIPLANO</t>
   </si>
   <si>
     <t>CEM 24 HORAS ILO</t>
@@ -3101,7 +3101,7 @@
     <t>OXAPAMPA</t>
   </si>
   <si>
-    <t>JR. MAYER S/N ( TIENDA 9 MERCADO SANTA  ROSA)</t>
+    <t>JR. MAYER S/N ( TIENDA 9 MERCADO SANTA ROSA)</t>
   </si>
   <si>
     <t>CEM REGULAR PASCO</t>
@@ -3110,7 +3110,7 @@
     <t>CHAUPIMARCA</t>
   </si>
   <si>
-    <t>JIRON FRANCISCO BOLOGNESI S/N (COSTADO DE  LA CAPILLA DE ULIACHIN)</t>
+    <t>JIRON FRANCISCO BOLOGNESI S/N (COSTADO DE LA CAPILLA DE ULIACHIN)</t>
   </si>
   <si>
     <t>CEM REGULAR VILLA RICA</t>
@@ -3119,19 +3119,19 @@
     <t>VILLA RICA</t>
   </si>
   <si>
-    <t>JR.COOPERATIVA Ndeg 220 - VILLA RICA (COSTADO  DE LA MUNICIPALIDAD)</t>
+    <t>JR.COOPERATIVA Ndeg 220 - VILLA RICA (COSTADO DE LA MUNICIPALIDAD)</t>
   </si>
   <si>
     <t>CEM REGULAR DANIEL ALCIDES CARRION</t>
   </si>
   <si>
-    <t>DANIEL ALCIDES  CARRION</t>
+    <t>DANIEL ALCIDES CARRION</t>
   </si>
   <si>
     <t>YANAHUANCA</t>
   </si>
   <si>
-    <t>JIRON BOLOGNESI S/N 2 PISO - MERCADO  CENTRAL DE YANAHUANCA</t>
+    <t>JIRON BOLOGNESI S/N 2 PISO - MERCADO CENTRAL DE YANAHUANCA</t>
   </si>
   <si>
     <t>CEM 24 HORAS PUERTO BERMUDEZ</t>
@@ -3140,7 +3140,7 @@
     <t>PUERTO BERMUDEZ</t>
   </si>
   <si>
-    <t>AVENIDA CAPITAN LARRIE S/N, PUERTO  BERMUDEZ - OXAPAMPA - PASCO</t>
+    <t>AVENIDA CAPITAN LARRIE S/N, PUERTO BERMUDEZ - OXAPAMPA - PASCO</t>
   </si>
   <si>
     <t>CEM 24 HORAS DE FAMILIA YANACANCHA</t>
@@ -3149,7 +3149,7 @@
     <t>YANACANCHA</t>
   </si>
   <si>
-    <t>AV. LOS INCAS INTERSECCION CON EL PASAJE 5  DE OCTUBRE, YANACANCHA - PASCO - PASCO</t>
+    <t>AV. LOS INCAS INTERSECCION CON EL PASAJE 5 DE OCTUBRE, YANACANCHA - PASCO - PASCO</t>
   </si>
   <si>
     <t>CEM 24 HORAS LA ESPERANZA</t>
@@ -3158,7 +3158,7 @@
     <t>SIMON BOLIVAR</t>
   </si>
   <si>
-    <t>AV. PROGRESO S/N CP. QUIULACOCHA. A 10  MINUTOS DE LA EX BASE MILITAR</t>
+    <t>AV. PROGRESO S/N CP. QUIULACOCHA. A 10 MINUTOS DE LA EX BASE MILITAR</t>
   </si>
   <si>
     <t>CEM REGULAR PIURA</t>
@@ -3179,7 +3179,7 @@
     <t>CHULUCANAS</t>
   </si>
   <si>
-    <t>AV. ALFONSO UGARTE S/N CUADRA 1 (COSTADO  DE LA DEMUNA)</t>
+    <t>AV. ALFONSO UGARTE S/N CUADRA 1 (COSTADO DE LA DEMUNA)</t>
   </si>
   <si>
     <t>CEM REGULAR SECHURA</t>
@@ -3197,7 +3197,7 @@
     <t>SULLANA</t>
   </si>
   <si>
-    <t>CLL. MANUEL COX MZ B LT 2 URBANIZACION  RAMIRO PRIALE</t>
+    <t>CLL. MANUEL COX MZ B LT 2 URBANIZACION RAMIRO PRIALE</t>
   </si>
   <si>
     <t>CEM REGULAR PAITA</t>
@@ -3206,7 +3206,7 @@
     <t>PAITA</t>
   </si>
   <si>
-    <t>AH.HH. SAN FRANCISCO MZ J LT 09 SALON  COMUNAL- PAITA ALTA</t>
+    <t>AH.HH. SAN FRANCISCO MZ J LT 09 SALON COMUNAL- PAITA ALTA</t>
   </si>
   <si>
     <t>CEM REGULAR TALARA</t>
@@ -3227,19 +3227,19 @@
     <t>HUANCABAMBA</t>
   </si>
   <si>
-    <t>CLL. 2 DE MAYO No 536 - BARRIO CHALACO  HUANCABAMBA- PIURA</t>
+    <t>CLL. 2 DE MAYO No 536 - BARRIO CHALACO HUANCABAMBA- PIURA</t>
   </si>
   <si>
     <t>CEM 24 HORAS NUEVA SULLANA</t>
   </si>
   <si>
-    <t>AV. EL NINO S/N MZ. B LOTE 13, SULLANA -  SULLANA - PIURA.</t>
+    <t>AV. EL NINO S/N MZ. B LOTE 13, SULLANA - SULLANA - PIURA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS SANTA JULIA</t>
   </si>
   <si>
-    <t>VEINTISEIS DE  OCTUBRE</t>
+    <t>VEINTISEIS DE OCTUBRE</t>
   </si>
   <si>
     <t>AV. DON BOSCO (AV. EX-CIRCUNVALACION) MZ G- 14, LTE 13 - A.H. SANTA JULIA</t>
@@ -3248,13 +3248,13 @@
     <t>CEM 24 HORAS DE FAMILIA PIURA</t>
   </si>
   <si>
-    <t>URBANIZACION LA ALBORADA - CLL. 9 SIN  NUMERO</t>
+    <t>URBANIZACION LA ALBORADA - CLL. 9 SIN NUMERO</t>
   </si>
   <si>
     <t>CEM 24 HORAS EL OBRERO</t>
   </si>
   <si>
-    <t>CLL. 13 DE DICIEMBRE S/N, ASENTAMIENTO  HUMANO EL OBRERO - SULLANA</t>
+    <t>CLL. 13 DE DICIEMBRE S/N, ASENTAMIENTO HUMANO EL OBRERO - SULLANA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SECTORIAL AYABACA</t>
@@ -3263,7 +3263,7 @@
     <t>AYABACA</t>
   </si>
   <si>
-    <t>CLL. CACERES No 105/107 - AYABACA - AYABACA -  PIURA</t>
+    <t>CLL. CACERES No 105/107 - AYABACA - AYABACA - PIURA</t>
   </si>
   <si>
     <t>CEM REGULAR CATACAOS</t>
@@ -3287,7 +3287,7 @@
     <t>LA HUACA</t>
   </si>
   <si>
-    <t>CLL. FERROCARRIL Ndeg.368, LA HUACA, PAITA,  PIURA.</t>
+    <t>CLL. FERROCARRIL Ndeg.368, LA HUACA, PAITA, PIURA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS RURAL TAMBOGRANDE</t>
@@ -3296,19 +3296,19 @@
     <t>TAMBO GRANDE</t>
   </si>
   <si>
-    <t>JR. PAITA Ndeg759 TAMBOGRANDE 2DO PISO DE LA  COMISARIA</t>
+    <t>JR. PAITA Ndeg759 TAMBOGRANDE 2DO PISO DE LA COMISARIA</t>
   </si>
   <si>
     <t>CEM 24 HORAS PIURA</t>
   </si>
   <si>
-    <t>AV. SANCHEZ CERRO No 1381 URB. LOS TOPOS -  PIURA - PIURA - PIURA</t>
+    <t>AV. SANCHEZ CERRO No 1381 URB. LOS TOPOS - PIURA - PIURA - PIURA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SECTORIAL PAITA</t>
   </si>
   <si>
-    <t>JR. INDEPENDENCIA Ndeg 417 - PAITA - PAITA -  PIURA</t>
+    <t>JR. INDEPENDENCIA Ndeg 417 - PAITA - PAITA - PIURA</t>
   </si>
   <si>
     <t>CEM 24 HORAS SUYO</t>
@@ -3341,7 +3341,7 @@
     <t>JULIACA</t>
   </si>
   <si>
-    <t>JR. MARIANO PANDIA Ndeg 285 URB. LA  RINCONADA</t>
+    <t>JR. MARIANO PANDIA Ndeg 285 URB. LA RINCONADA</t>
   </si>
   <si>
     <t>CEM REGULAR PUNO</t>
@@ -3380,7 +3380,7 @@
     <t>AZANGARO</t>
   </si>
   <si>
-    <t>MERCADO CENTRAL PEDRO VILCAPASA- 3ER  PISO, AZANGARO) .</t>
+    <t>MERCADO CENTRAL PEDRO VILCAPASA- 3ER PISO, AZANGARO) .</t>
   </si>
   <si>
     <t>CEM REGULAR CHUCUITO</t>
@@ -3398,7 +3398,7 @@
     <t>CEM REGULAR SAN ANTONIO DE PUTINA</t>
   </si>
   <si>
-    <t>SAN ANTONIO DE  PUTINA</t>
+    <t>SAN ANTONIO DE PUTINA</t>
   </si>
   <si>
     <t>PUTINA</t>
@@ -3425,7 +3425,7 @@
     <t>SANDIA</t>
   </si>
   <si>
-    <t>JR. INCA GARCILASO DE LA VEGA S/N HOTEL  MUNICIPAL CANDAMO 2DO.</t>
+    <t>JR. INCA GARCILASO DE LA VEGA S/N HOTEL MUNICIPAL CANDAMO 2DO.</t>
   </si>
   <si>
     <t>CEM REGULAR HUANCANE</t>
@@ -3434,7 +3434,7 @@
     <t>HUANCANE</t>
   </si>
   <si>
-    <t>AV. EL EJERCITO Ndeg 502 - 3ER PISO DEL  POLICLINICO MUNICIPAL DE HUANCANE</t>
+    <t>AV. EL EJERCITO Ndeg 502 - 3ER PISO DEL POLICLINICO MUNICIPAL DE HUANCANE</t>
   </si>
   <si>
     <t>CEM REGULAR LAMPA</t>
@@ -3443,7 +3443,7 @@
     <t>LAMPA</t>
   </si>
   <si>
-    <t>JR. LA MUNICIPALIDAD S/N TERMINAL  TERRESTRE, 2DO PISO</t>
+    <t>JR. LA MUNICIPALIDAD S/N TERMINAL TERRESTRE, 2DO PISO</t>
   </si>
   <si>
     <t>CEM REGULAR MOHO</t>
@@ -3464,13 +3464,13 @@
     <t>CEM 24 HORAS SANTA BARBARA</t>
   </si>
   <si>
-    <t>JIRON LOS OLIVOS S/N ESQUINA CON AVENIDA  MARTIRES 4 DE NOVIEMBRE, JULIACA - SAN  ROMAN - PUNO.</t>
+    <t>JIRON LOS OLIVOS S/N ESQUINA CON AVENIDA MARTIRES 4 DE NOVIEMBRE, JULIACA - SAN ROMAN - PUNO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS AZANGARO</t>
   </si>
   <si>
-    <t>JIRON TACNA Ndeg 367 - AZANGARO - AZANGARO -  PUNO.</t>
+    <t>JIRON TACNA Ndeg 367 - AZANGARO - AZANGARO - PUNO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS DESAGUADERO</t>
@@ -3479,7 +3479,7 @@
     <t>DESAGUADERO</t>
   </si>
   <si>
-    <t>AVENIDA 28 DE JULIO No 325 - DESAGUADERO -  CHUCUITO - PUNO.</t>
+    <t>AVENIDA 28 DE JULIO No 325 - DESAGUADERO - CHUCUITO - PUNO.</t>
   </si>
   <si>
     <t>CEM 24 HORAS YUNGUYO</t>
@@ -3488,7 +3488,7 @@
     <t>YUNGUYO</t>
   </si>
   <si>
-    <t>JIRON AUDIBERTH Ndeg 273, YUNGUYO, YUNGUYO,  PUNO.</t>
+    <t>JIRON AUDIBERTH Ndeg 273, YUNGUYO, YUNGUYO, PUNO.</t>
   </si>
   <si>
     <t>CEM REGULAR ACORA</t>
@@ -3524,7 +3524,7 @@
     <t>TARAPOTO</t>
   </si>
   <si>
-    <t>JR.SHAPAJA 5TA CUADRA S/N - BARRIO HUAYCO  DE LA URB. SANTA INES (LOCAL EX CAMAL</t>
+    <t>JR.SHAPAJA 5TA CUADRA S/N - BARRIO HUAYCO DE LA URB. SANTA INES (LOCAL EX CAMAL</t>
   </si>
   <si>
     <t>CEM REGULAR MOYOBAMBA</t>
@@ -3533,7 +3533,7 @@
     <t>MOYOBAMBA</t>
   </si>
   <si>
-    <t>AV. GRAU CDRA 4 (AL COSTADO DEL MERCADO  AYAYMAMA - CAMPO FERIAL AYYAMAMA)</t>
+    <t>AV. GRAU CDRA 4 (AL COSTADO DEL MERCADO AYAYMAMA - CAMPO FERIAL AYYAMAMA)</t>
   </si>
   <si>
     <t>CEM REGULAR RIOJA</t>
@@ -3557,7 +3557,7 @@
     <t>CEM REGULAR BELLAVISTA - SAN MARTIN</t>
   </si>
   <si>
-    <t>JR. IQUITOS Ndeg 260 (EX-BIBLIOTECA MUNICIPAL  DE BELLAVISTA- 1ER PISO 2DO NIVEL)</t>
+    <t>JR. IQUITOS Ndeg 260 (EX-BIBLIOTECA MUNICIPAL DE BELLAVISTA- 1ER PISO 2DO NIVEL)</t>
   </si>
   <si>
     <t>CEM REGULAR MARISCAL CACERES</t>
@@ -3569,7 +3569,7 @@
     <t>JUANJUI</t>
   </si>
   <si>
-    <t>JR. PROGRESO, CUADRA 4- FRENTE A LA  GOBERNACION PROVINCIAL.</t>
+    <t>JR. PROGRESO, CUADRA 4- FRENTE A LA GOBERNACION PROVINCIAL.</t>
   </si>
   <si>
     <t>CEM REGULAR PICOTA</t>
@@ -3578,16 +3578,16 @@
     <t>PICOTA</t>
   </si>
   <si>
-    <t>CARRETERA FERNANDO BELAUNDE TERRY S/N,  KM 60</t>
+    <t>CARRETERA FERNANDO BELAUNDE TERRY S/N, KM 60</t>
   </si>
   <si>
     <t>CEM REGULAR LA BANDA DE SHILCAYO</t>
   </si>
   <si>
-    <t>LA BANDA DE  SHILCAYO</t>
-  </si>
-  <si>
-    <t>PASAJE 17 DE AGOSTO Ndeg152 - LA BANDA DE  SHILCAYO</t>
+    <t>LA BANDA DE SHILCAYO</t>
+  </si>
+  <si>
+    <t>PASAJE 17 DE AGOSTO Ndeg152 - LA BANDA DE SHILCAYO</t>
   </si>
   <si>
     <t>CEM REGULAR HUALLAGA</t>
@@ -3599,7 +3599,7 @@
     <t>SAPOSOA</t>
   </si>
   <si>
-    <t>AV. LORETO 385 - DISTRITO DE SAPOSOA -  HUALLAGA.</t>
+    <t>AV. LORETO 385 - DISTRITO DE SAPOSOA - HUALLAGA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS NARANJOS</t>
@@ -3608,19 +3608,19 @@
     <t>PARDO MIGUEL</t>
   </si>
   <si>
-    <t>AV. PARDO MIGUEL CON JIRON ANGELES S/N,-  PARDO MIGUEL - RIOJA - SAN MARTIN.</t>
+    <t>AV. PARDO MIGUEL CON JIRON ANGELES S/N,- PARDO MIGUEL - RIOJA - SAN MARTIN.</t>
   </si>
   <si>
     <t>CEM 24 HORAS UCHUGLLA</t>
   </si>
   <si>
-    <t>AV. GRAU CDRA 01 - CON FERNANDO BELAUNDE  TERRY</t>
+    <t>AV. GRAU CDRA 01 - CON FERNANDO BELAUNDE TERRY</t>
   </si>
   <si>
     <t>CEM 24 HORAS JUANJUI</t>
   </si>
   <si>
-    <t>JIRON LA MERCED Ndeg 324 - JUANJUI - MARISCAL  CACERES - SAN MARTIN. REFERENCIA: FRENTE A  LA PLAZA DE ARMAS DE JUANJUI.</t>
+    <t>JIRON LA MERCED Ndeg 324 - JUANJUI - MARISCAL CACERES - SAN MARTIN. REFERENCIA: FRENTE A LA PLAZA DE ARMAS DE JUANJUI.</t>
   </si>
   <si>
     <t>CEM 24 HORAS SECTORIAL TOCACHE</t>
@@ -3638,13 +3638,13 @@
     <t>TABALOSOS</t>
   </si>
   <si>
-    <t>CARRETERA FERNANDO BELAUNDE TERRY, KM  566+400, TABALOSOS, LAMAS, SAN MARTIN.</t>
+    <t>CARRETERA FERNANDO BELAUNDE TERRY, KM 566+400, TABALOSOS, LAMAS, SAN MARTIN.</t>
   </si>
   <si>
     <t>CEM 24 HORAS PICOTA</t>
   </si>
   <si>
-    <t>CARRETERA FERNANDO BELAUNDE TERRY KM. 60  CON JR. MIGUEL GRAU CDRA 5</t>
+    <t>CARRETERA FERNANDO BELAUNDE TERRY KM. 60 CON JR. MIGUEL GRAU CDRA 5</t>
   </si>
   <si>
     <t>CEM REGULAR UCHIZA</t>
@@ -3662,7 +3662,7 @@
     <t>NUEVA CAJAMARCA</t>
   </si>
   <si>
-    <t>AV. CAJAMARCA SUR Ndeg 595 - NUEVA  CAJAMARCA - RIOJA - SAN MARTIN</t>
+    <t>AV. CAJAMARCA SUR Ndeg 595 - NUEVA CAJAMARCA - RIOJA - SAN MARTIN</t>
   </si>
   <si>
     <t>CEM 24 HORAS SAN JOSE DE SISA</t>
@@ -3692,7 +3692,7 @@
     <t>TACNA</t>
   </si>
   <si>
-    <t>CALLE HIPOLITO UNANUE No 970 CERCADO DE  TACNA, COMISARIA DE FAMILIA</t>
+    <t>CALLE HIPOLITO UNANUE No 970 CERCADO DE TACNA, COMISARIA DE FAMILIA</t>
   </si>
   <si>
     <t>CEM REGULAR CANDARAVE</t>
@@ -3731,16 +3731,16 @@
     <t>CIUDAD NUEVA</t>
   </si>
   <si>
-    <t>CALLE CASIMIRO ESPEJO S/N, CIUDAD NUEVA -  TACNA - TACNA.</t>
+    <t>CALLE CASIMIRO ESPEJO S/N, CIUDAD NUEVA - TACNA - TACNA.</t>
   </si>
   <si>
     <t>CEM 24 HORAS GREGORIO ALBARRACIN</t>
   </si>
   <si>
-    <t>CORONEL GREGORIO  ALBARRACIN LANCHIPA</t>
-  </si>
-  <si>
-    <t>ASOCIACION DE VIVIENDA 29 DE MAYO - RIO  AZUL MANZANA 424-A P- LOTE 1</t>
+    <t>CORONEL GREGORIO ALBARRACIN LANCHIPA</t>
+  </si>
+  <si>
+    <t>ASOCIACION DE VIVIENDA 29 DE MAYO - RIO AZUL MANZANA 424-A P- LOTE 1</t>
   </si>
   <si>
     <t>CEM 24 HORAS ALTO DE LA ALIANZA</t>
@@ -3755,7 +3755,7 @@
     <t>CEM 24 HORAS AUGUSTO B. LEGUIA</t>
   </si>
   <si>
-    <t>ES. CALLE JOSE GALVEZ CON CALLE 200 MILLAS -  TACNA - TACNA - TACNA</t>
+    <t>ES. CALLE JOSE GALVEZ CON CALLE 200 MILLAS - TACNA - TACNA - TACNA</t>
   </si>
   <si>
     <t>CEM 24 HORAS LA NATIVIDAD</t>
@@ -3770,7 +3770,7 @@
     <t>TUMBES</t>
   </si>
   <si>
-    <t>PASAJE MAXIMILIANO MORAN MANZANA 01 -  LOTE 03 - URB. ANDRES ARAUJO MORAN</t>
+    <t>PASAJE MAXIMILIANO MORAN MANZANA 01 - LOTE 03 - URB. ANDRES ARAUJO MORAN</t>
   </si>
   <si>
     <t>CEM REGULAR AGUAS VERDES</t>
@@ -3782,13 +3782,13 @@
     <t>AGUAS VERDES</t>
   </si>
   <si>
-    <t>CLL. SAN MARTIN S/N DEL COMPLEJO  HABITACIONAL - LOCAL DE LOS BOMBEROS</t>
+    <t>CLL. SAN MARTIN S/N DEL COMPLEJO HABITACIONAL - LOCAL DE LOS BOMBEROS</t>
   </si>
   <si>
     <t>CEM REGULAR CONTRALMIRANTE VILLAR</t>
   </si>
   <si>
-    <t>CONTRALMIRANTE  VILLAR</t>
+    <t>CONTRALMIRANTE VILLAR</t>
   </si>
   <si>
     <t>ZORRITOS</t>
@@ -3800,7 +3800,7 @@
     <t>CEM 24 HORAS DE FAMILIA TUMBES</t>
   </si>
   <si>
-    <t>AV. TUPAC AMARU S/N MZ. G LOTE 09, 2DO PISO  DE LA COMISARIA</t>
+    <t>AV. TUPAC AMARU S/N MZ. G LOTE 09, 2DO PISO DE LA COMISARIA</t>
   </si>
   <si>
     <t>CEM 24 HORAS PAMPAS DE HOSPITAL</t>
@@ -3809,7 +3809,7 @@
     <t>PAMPAS DE HOSPITAL</t>
   </si>
   <si>
-    <t>PASAJE ALIPIO ROSALES S/N, PAMPAS DE  HOSPITAL, TUMBES, TUMBES.</t>
+    <t>PASAJE ALIPIO ROSALES S/N, PAMPAS DE HOSPITAL, TUMBES, TUMBES.</t>
   </si>
   <si>
     <t>CEM 24 HORAS LA CRUZ</t>
@@ -3827,7 +3827,7 @@
     <t>CORRALES</t>
   </si>
   <si>
-    <t>CLL. SAN PEDRO Ndeg 600 - 2DO PISO DE LA  COMISARIA CORRALES</t>
+    <t>CLL. SAN PEDRO Ndeg 600 - 2DO PISO DE LA COMISARIA CORRALES</t>
   </si>
   <si>
     <t>CEM REGULAR PUCALLPA</t>
@@ -3848,7 +3848,7 @@
     <t>PADRE ABAD</t>
   </si>
   <si>
-    <t>JR. MALECON LAS PALMERAS MZ. L-5 LT.01 - JJVV  LAS PALMERAS AGUAYTIA</t>
+    <t>JR. MALECON LAS PALMERAS MZ. L-5 LT.01 - JJVV LAS PALMERAS AGUAYTIA</t>
   </si>
   <si>
     <t>CEM REGULAR ATALAYA</t>
@@ -3869,13 +3869,13 @@
     <t>PURUS</t>
   </si>
   <si>
-    <t>AV. JULIO VILLACORTA S/N VCON LUIS MUNOZ  NADAL S/N</t>
+    <t>AV. JULIO VILLACORTA S/N VCON LUIS MUNOZ NADAL S/N</t>
   </si>
   <si>
     <t>CEM 24 HORAS RURAL VON HUMBOLT</t>
   </si>
   <si>
-    <t>ALEXANDER VON  HUMBOLDT</t>
+    <t>ALEXANDER VON HUMBOLDT</t>
   </si>
   <si>
     <t>CARRETERA FEDERICO BASADRE KM 86</t>
@@ -3887,7 +3887,7 @@
     <t>IRAZOLA</t>
   </si>
   <si>
-    <t>CARRETERA FEDERICO BASADRE KM 111  INTERIOR DE LA COMISARIA SAN ALEJANDRO</t>
+    <t>CARRETERA FEDERICO BASADRE KM 111 INTERIOR DE LA COMISARIA SAN ALEJANDRO</t>
   </si>
   <si>
     <t>CEM 24 HORAS YARINACOCHA</t>
@@ -3905,7 +3905,7 @@
     <t>CAMPOVERDE</t>
   </si>
   <si>
-    <t>AV. PRIMERO DE JUNIO MZ. "F" LT.10.  CARRETERA FEDERICO BASADRE KM. 34</t>
+    <t>AV. PRIMERO DE JUNIO MZ. "F" LT.10. CARRETERA FEDERICO BASADRE KM. 34</t>
   </si>
   <si>
     <t>SAU</t>
@@ -4151,9 +4151,6 @@
     <t>SAR SAN PABLO</t>
   </si>
   <si>
-    <t>MARISCAL RAMON CASTILLA</t>
-  </si>
-  <si>
     <t>SAR PIAS NAPO</t>
   </si>
   <si>
@@ -4211,9 +4208,6 @@
     <t>SAR ICHUNA</t>
   </si>
   <si>
-    <t>GENERAL SANCHEZ CERRO</t>
-  </si>
-  <si>
     <t>ICHUNA</t>
   </si>
   <si>
@@ -4290,9 +4284,6 @@
   </si>
   <si>
     <t>SAR CASITAS</t>
-  </si>
-  <si>
-    <t>CONTRALMIRANTE VILLAR</t>
   </si>
   <si>
     <t>CASITAS</t>
@@ -14209,7 +14200,7 @@
         <v>943</v>
       </c>
       <c r="D477" t="s">
-        <v>1371</v>
+        <v>955</v>
       </c>
       <c r="E477" t="s">
         <v>326</v>
@@ -14223,7 +14214,7 @@
         <v>1301</v>
       </c>
       <c r="B478" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C478" t="s">
         <v>943</v>
@@ -14243,7 +14234,7 @@
         <v>1301</v>
       </c>
       <c r="B479" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C479" t="s">
         <v>943</v>
@@ -14263,7 +14254,7 @@
         <v>1301</v>
       </c>
       <c r="B480" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C480" t="s">
         <v>943</v>
@@ -14272,7 +14263,7 @@
         <v>943</v>
       </c>
       <c r="E480" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F480" t="s">
         <v>1293</v>
@@ -14283,7 +14274,7 @@
         <v>1301</v>
       </c>
       <c r="B481" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C481" t="s">
         <v>943</v>
@@ -14292,7 +14283,7 @@
         <v>943</v>
       </c>
       <c r="E481" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F481" t="s">
         <v>1293</v>
@@ -14303,7 +14294,7 @@
         <v>1301</v>
       </c>
       <c r="B482" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C482" t="s">
         <v>943</v>
@@ -14312,7 +14303,7 @@
         <v>959</v>
       </c>
       <c r="E482" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F482" t="s">
         <v>1293</v>
@@ -14323,7 +14314,7 @@
         <v>1301</v>
       </c>
       <c r="B483" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C483" t="s">
         <v>943</v>
@@ -14332,7 +14323,7 @@
         <v>959</v>
       </c>
       <c r="E483" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F483" t="s">
         <v>1293</v>
@@ -14343,7 +14334,7 @@
         <v>1301</v>
       </c>
       <c r="B484" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C484" t="s">
         <v>943</v>
@@ -14352,7 +14343,7 @@
         <v>944</v>
       </c>
       <c r="E484" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F484" t="s">
         <v>1293</v>
@@ -14363,16 +14354,16 @@
         <v>1301</v>
       </c>
       <c r="B485" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C485" t="s">
         <v>943</v>
       </c>
       <c r="D485" t="s">
-        <v>1371</v>
+        <v>955</v>
       </c>
       <c r="E485" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F485" t="s">
         <v>1293</v>
@@ -14383,7 +14374,7 @@
         <v>1301</v>
       </c>
       <c r="B486" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C486" t="s">
         <v>943</v>
@@ -14392,7 +14383,7 @@
         <v>959</v>
       </c>
       <c r="E486" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F486" t="s">
         <v>1293</v>
@@ -14403,7 +14394,7 @@
         <v>1301</v>
       </c>
       <c r="B487" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C487" t="s">
         <v>984</v>
@@ -14423,7 +14414,7 @@
         <v>1301</v>
       </c>
       <c r="B488" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C488" t="s">
         <v>984</v>
@@ -14432,7 +14423,7 @@
         <v>985</v>
       </c>
       <c r="E488" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F488" t="s">
         <v>1293</v>
@@ -14443,16 +14434,16 @@
         <v>1301</v>
       </c>
       <c r="B489" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C489" t="s">
         <v>1001</v>
       </c>
       <c r="D489" t="s">
-        <v>1391</v>
+        <v>1008</v>
       </c>
       <c r="E489" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F489" t="s">
         <v>1293</v>
@@ -14463,7 +14454,7 @@
         <v>1301</v>
       </c>
       <c r="B490" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C490" t="s">
         <v>1019</v>
@@ -14472,7 +14463,7 @@
         <v>1020</v>
       </c>
       <c r="E490" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F490" t="s">
         <v>1293</v>
@@ -14483,7 +14474,7 @@
         <v>1301</v>
       </c>
       <c r="B491" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C491" t="s">
         <v>1042</v>
@@ -14492,7 +14483,7 @@
         <v>1049</v>
       </c>
       <c r="E491" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F491" t="s">
         <v>1293</v>
@@ -14503,7 +14494,7 @@
         <v>1301</v>
       </c>
       <c r="B492" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C492" t="s">
         <v>1042</v>
@@ -14512,7 +14503,7 @@
         <v>1049</v>
       </c>
       <c r="E492" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F492" t="s">
         <v>1293</v>
@@ -14523,7 +14514,7 @@
         <v>1301</v>
       </c>
       <c r="B493" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C493" t="s">
         <v>1042</v>
@@ -14532,7 +14523,7 @@
         <v>1062</v>
       </c>
       <c r="E493" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F493" t="s">
         <v>1293</v>
@@ -14543,7 +14534,7 @@
         <v>1301</v>
       </c>
       <c r="B494" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C494" t="s">
         <v>1098</v>
@@ -14552,7 +14543,7 @@
         <v>1124</v>
       </c>
       <c r="E494" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="F494" t="s">
         <v>1293</v>
@@ -14563,7 +14554,7 @@
         <v>1301</v>
       </c>
       <c r="B495" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C495" t="s">
         <v>1098</v>
@@ -14572,7 +14563,7 @@
         <v>1116</v>
       </c>
       <c r="E495" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="F495" t="s">
         <v>1293</v>
@@ -14583,7 +14574,7 @@
         <v>1301</v>
       </c>
       <c r="B496" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C496" t="s">
         <v>1098</v>
@@ -14603,7 +14594,7 @@
         <v>1301</v>
       </c>
       <c r="B497" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C497" t="s">
         <v>1098</v>
@@ -14612,7 +14603,7 @@
         <v>1124</v>
       </c>
       <c r="E497" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F497" t="s">
         <v>1293</v>
@@ -14623,7 +14614,7 @@
         <v>1301</v>
       </c>
       <c r="B498" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C498" t="s">
         <v>1160</v>
@@ -14632,7 +14623,7 @@
         <v>1170</v>
       </c>
       <c r="E498" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F498" t="s">
         <v>1293</v>
@@ -14643,7 +14634,7 @@
         <v>1301</v>
       </c>
       <c r="B499" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C499" t="s">
         <v>1160</v>
@@ -14652,7 +14643,7 @@
         <v>1196</v>
       </c>
       <c r="E499" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F499" t="s">
         <v>1293</v>
@@ -14663,7 +14654,7 @@
         <v>1301</v>
       </c>
       <c r="B500" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C500" t="s">
         <v>1160</v>
@@ -14672,7 +14663,7 @@
         <v>1170</v>
       </c>
       <c r="E500" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="F500" t="s">
         <v>1293</v>
@@ -14683,7 +14674,7 @@
         <v>1301</v>
       </c>
       <c r="B501" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C501" t="s">
         <v>1217</v>
@@ -14692,7 +14683,7 @@
         <v>1217</v>
       </c>
       <c r="E501" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="F501" t="s">
         <v>1293</v>
@@ -14703,7 +14694,7 @@
         <v>1301</v>
       </c>
       <c r="B502" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C502" t="s">
         <v>1217</v>
@@ -14723,16 +14714,16 @@
         <v>1301</v>
       </c>
       <c r="B503" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C503" t="s">
         <v>1243</v>
       </c>
       <c r="D503" t="s">
-        <v>1418</v>
+        <v>1250</v>
       </c>
       <c r="E503" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="F503" t="s">
         <v>1293</v>
@@ -14743,7 +14734,7 @@
         <v>1301</v>
       </c>
       <c r="B504" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C504" t="s">
         <v>965</v>
@@ -14752,7 +14743,7 @@
         <v>1265</v>
       </c>
       <c r="E504" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="F504" t="s">
         <v>1293</v>
@@ -14763,7 +14754,7 @@
         <v>1301</v>
       </c>
       <c r="B505" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C505" t="s">
         <v>965</v>
@@ -14772,39 +14763,18 @@
         <v>1272</v>
       </c>
       <c r="E505" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="F505" t="s">
         <v>1293</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F505" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="667d70cb-f49f-4223-87b6-a8a0e4fc3231">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c37f41b3-fada-4b69-b314-7ed8c2ce1ec6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007183A11C1BA9EC45BAE4956AD7AAC49F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8968d00cc9cbd16318dffa468e491757">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="667d70cb-f49f-4223-87b6-a8a0e4fc3231" xmlns:ns3="c37f41b3-fada-4b69-b314-7ed8c2ce1ec6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="261613cec701e05d042a2030dd9f82fb" ns2:_="" ns3:_="">
     <xsd:import namespace="667d70cb-f49f-4223-87b6-a8a0e4fc3231"/>
@@ -15005,27 +14975,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C963E5A-8FE6-49E0-A148-E4417637C05C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="667d70cb-f49f-4223-87b6-a8a0e4fc3231"/>
-    <ds:schemaRef ds:uri="c37f41b3-fada-4b69-b314-7ed8c2ce1ec6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="667d70cb-f49f-4223-87b6-a8a0e4fc3231">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c37f41b3-fada-4b69-b314-7ed8c2ce1ec6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C109A8F-6AE3-49E0-A6E4-46C9308206D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05CE384F-48C9-4C63-85D3-2ABECEB3C08A}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E7C276-371E-4750-9E02-D4C7B63F5C27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -15041,4 +15012,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9026F5A6-77DF-4B6C-8415-0148E983617C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="667d70cb-f49f-4223-87b6-a8a0e4fc3231"/>
+    <ds:schemaRef ds:uri="c37f41b3-fada-4b69-b314-7ed8c2ce1ec6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8426B3B-327A-47B0-8B44-081B9277E7BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>